--- a/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E6A6C-E983-4DBE-8AA1-9A1784C89549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -435,7 +436,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -482,6 +483,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -517,6 +535,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,17 +703,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -688,7 +723,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,7 +735,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,7 +747,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -722,7 +757,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -734,7 +769,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -746,7 +781,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,7 +791,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -778,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -788,7 +823,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -810,7 +845,7 @@
         <v>2007758</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -832,7 +867,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -854,7 +889,7 @@
         <v>434908</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -876,7 +911,7 @@
         <v>2572566</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -898,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -920,7 +955,7 @@
         <v>2572566</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -942,7 +977,7 @@
         <v>-28374</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -964,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -986,7 +1021,7 @@
         <v>2544192</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>301968</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>2846160</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>2846160</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1106,7 +1141,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1116,7 +1151,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1158,7 +1193,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1241,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1265,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>324690</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1278,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>330988</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1334,7 +1369,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1344,7 +1379,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1354,7 +1389,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1386,7 +1421,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1458,7 +1493,7 @@
         <v>9462</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1517,7 @@
         <v>68420</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1565,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1587,7 @@
         <v>86163</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1562,7 +1597,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1572,7 +1607,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1582,7 +1617,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1614,7 +1649,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1662,7 +1697,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -1686,7 +1721,7 @@
         <v>11342</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1745,7 @@
         <v>79136</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>31</v>
       </c>
@@ -1734,7 +1769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1815,7 @@
         <v>99076</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1790,7 +1825,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1800,7 +1835,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1810,7 +1845,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1842,7 +1877,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1925,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>30</v>
       </c>
@@ -1938,7 +1973,7 @@
         <v>313974</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +1997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +2021,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2043,7 @@
         <v>318075</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2018,7 +2053,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2028,7 +2063,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2038,7 +2073,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>37</v>
       </c>
@@ -2060,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2070,7 +2105,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2153,7 @@
         <v>191552</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>131121</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2201,7 @@
         <v>784530</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -2214,7 +2249,7 @@
         <v>332671</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>1439874</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2246,7 +2281,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2256,7 +2291,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2266,7 +2301,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>38</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2298,7 +2333,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2381,7 @@
         <v>499045</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>489769</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>30</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>556486</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>31</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -2442,7 +2477,7 @@
         <v>594425</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>12</v>
       </c>
@@ -2464,7 +2499,7 @@
         <v>2139725</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2474,7 +2509,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2484,7 +2519,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2494,7 +2529,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>39</v>
       </c>
@@ -2516,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2526,7 +2561,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>534524</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -2598,7 +2633,7 @@
         <v>566608</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>186321</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>32</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>720305</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>2007758</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2702,7 +2737,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2712,7 +2747,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2722,7 +2757,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>40</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2754,7 +2789,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
@@ -2778,7 +2813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -2802,7 +2837,7 @@
         <v>156073</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>29</v>
       </c>
@@ -2826,7 +2861,7 @@
         <v>54282</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>30</v>
       </c>
@@ -2850,7 +2885,7 @@
         <v>1154695</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>31</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>206791</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2955,7 @@
         <v>1571841</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2930,7 +2965,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2940,7 +2975,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2950,7 +2985,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>41</v>
       </c>
@@ -2972,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2982,7 +3017,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>27</v>
       </c>
@@ -3006,7 +3041,7 @@
         <v>169966282</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +3065,7 @@
         <v>45528125</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>30</v>
       </c>
@@ -3054,7 +3089,7 @@
         <v>2416243</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -3078,7 +3113,7 @@
         <v>145207770</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3088,7 +3123,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3098,7 +3133,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3108,7 +3143,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>43</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3140,7 +3175,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>27</v>
       </c>
@@ -3164,7 +3199,7 @@
         <v>330056217</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>29</v>
       </c>
@@ -3188,7 +3223,7 @@
         <v>51761678</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3247,7 @@
         <v>8133382</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>32</v>
       </c>
@@ -3236,7 +3271,7 @@
         <v>87815778</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3246,7 +3281,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3256,7 +3291,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3266,7 +3301,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>44</v>
       </c>
@@ -3288,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3298,7 +3333,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>27</v>
       </c>
@@ -3322,7 +3357,7 @@
         <v>306668962</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>29</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>49956621</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>30</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>2354440</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>105077316</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3404,7 +3439,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3414,7 +3449,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3424,7 +3459,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>45</v>
       </c>
@@ -3446,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3456,7 +3491,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>27</v>
       </c>
@@ -3480,7 +3515,7 @@
         <v>174188616</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>29</v>
       </c>
@@ -3504,7 +3539,7 @@
         <v>54282000</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>30</v>
       </c>
@@ -3528,7 +3563,7 @@
         <v>3677677</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>32</v>
       </c>
@@ -3552,7 +3587,7 @@
         <v>93782766</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3562,7 +3597,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3572,7 +3607,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3582,7 +3617,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3614,7 +3649,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3671,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>48</v>
       </c>
@@ -3658,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>49</v>
       </c>
@@ -3680,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>50</v>
       </c>
@@ -3702,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3759,7 @@
         <v>25922</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>52</v>
       </c>
@@ -3746,7 +3781,7 @@
         <v>-85827</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>53</v>
       </c>
@@ -3768,7 +3803,7 @@
         <v>184264</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>54</v>
       </c>
@@ -3790,7 +3825,7 @@
         <v>107025</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>55</v>
       </c>
@@ -3812,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>56</v>
       </c>
@@ -3834,7 +3869,7 @@
         <v>198480</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="14" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3891,7 @@
         <v>434908</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3866,7 +3901,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3876,7 +3911,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3886,7 +3921,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>57</v>
       </c>
@@ -3898,7 +3933,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3908,7 +3943,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>58</v>
       </c>
@@ -3922,7 +3957,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>60</v>
       </c>
@@ -3936,7 +3971,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>61</v>
       </c>
@@ -3950,7 +3985,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>62</v>
       </c>
@@ -3961,7 +3996,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>64</v>
       </c>
@@ -3972,7 +4007,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>65</v>
       </c>
@@ -3983,7 +4018,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>67</v>
       </c>
@@ -3994,7 +4029,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>68</v>
       </c>
@@ -4005,7 +4040,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>69</v>
       </c>
@@ -4016,7 +4051,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>71</v>
       </c>
@@ -4027,7 +4062,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>72</v>
       </c>
@@ -4038,7 +4073,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4084,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>74</v>
       </c>
@@ -4060,7 +4095,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>75</v>
       </c>

--- a/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E6A6C-E983-4DBE-8AA1-9A1784C89549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75913DC9-8D21-41DF-BEAE-ECFF8E99571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,18 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/11</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/02</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/05</t>
   </si>
   <si>
@@ -47,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -704,16 +719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I190"/>
+  <dimension ref="B1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -722,8 +737,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,8 +754,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -746,8 +771,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -756,8 +786,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,8 +803,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -780,8 +820,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -790,8 +835,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -812,8 +862,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,98 +887,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>403630</v>
+      </c>
+      <c r="F10" s="9">
+        <v>460796</v>
+      </c>
+      <c r="G10" s="9">
+        <v>932308</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1226484</v>
+      </c>
+      <c r="I10" s="9">
         <v>1026353</v>
       </c>
-      <c r="F10" s="9">
+      <c r="J10" s="9">
         <v>1790169</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="9">
         <v>1228173</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>1869621</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>2007758</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>1976180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>41052</v>
+      </c>
+      <c r="F11" s="11">
+        <v>65908</v>
+      </c>
+      <c r="G11" s="11">
+        <v>50680</v>
+      </c>
+      <c r="H11" s="11">
+        <v>65034</v>
+      </c>
+      <c r="I11" s="11">
         <v>66384</v>
       </c>
-      <c r="F11" s="11">
+      <c r="J11" s="11">
         <v>79177</v>
       </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
         <v>78672</v>
       </c>
-      <c r="H11" s="11">
+      <c r="L11" s="11">
         <v>138201</v>
       </c>
-      <c r="I11" s="11">
+      <c r="M11" s="11">
         <v>129900</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>145860</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>391870</v>
+      </c>
+      <c r="F12" s="9">
+        <v>975814</v>
+      </c>
+      <c r="G12" s="9">
+        <v>480967</v>
+      </c>
+      <c r="H12" s="9">
+        <v>416633</v>
+      </c>
+      <c r="I12" s="9">
         <v>546652</v>
       </c>
-      <c r="F12" s="9">
+      <c r="J12" s="9">
         <v>1101918</v>
       </c>
-      <c r="G12" s="9">
+      <c r="K12" s="9">
         <v>741541</v>
       </c>
-      <c r="H12" s="9">
+      <c r="L12" s="9">
         <v>825747</v>
       </c>
-      <c r="I12" s="9">
+      <c r="M12" s="9">
         <v>434908</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>1010023</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>836552</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1502518</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1463955</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1708151</v>
+      </c>
+      <c r="I13" s="13">
         <v>1639389</v>
       </c>
-      <c r="F13" s="13">
+      <c r="J13" s="13">
         <v>2971264</v>
       </c>
-      <c r="G13" s="13">
+      <c r="K13" s="13">
         <v>2048386</v>
       </c>
-      <c r="H13" s="13">
+      <c r="L13" s="13">
         <v>2833569</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M13" s="13">
         <v>2572566</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="13">
+        <v>3132063</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -932,54 +1062,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>836552</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1502518</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1463955</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1708151</v>
+      </c>
+      <c r="I15" s="13">
         <v>1639389</v>
       </c>
-      <c r="F15" s="13">
+      <c r="J15" s="13">
         <v>2971264</v>
       </c>
-      <c r="G15" s="13">
+      <c r="K15" s="13">
         <v>2048386</v>
       </c>
-      <c r="H15" s="13">
+      <c r="L15" s="13">
         <v>2833569</v>
       </c>
-      <c r="I15" s="13">
+      <c r="M15" s="13">
         <v>2572566</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>3132063</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>3707</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-18242</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-14790</v>
+      </c>
+      <c r="H16" s="9">
+        <v>28933</v>
+      </c>
+      <c r="I16" s="9">
         <v>-5476</v>
       </c>
-      <c r="F16" s="9">
+      <c r="J16" s="9">
         <v>-292537</v>
       </c>
-      <c r="G16" s="9">
+      <c r="K16" s="9">
         <v>306716</v>
       </c>
-      <c r="H16" s="9">
+      <c r="L16" s="9">
         <v>-16507</v>
       </c>
-      <c r="I16" s="9">
+      <c r="M16" s="9">
         <v>-28374</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>25173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -998,32 +1173,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>840259</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1484276</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1449165</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1737084</v>
+      </c>
+      <c r="I18" s="15">
         <v>1633913</v>
       </c>
-      <c r="F18" s="15">
+      <c r="J18" s="15">
         <v>2678727</v>
       </c>
-      <c r="G18" s="15">
+      <c r="K18" s="15">
         <v>2355102</v>
       </c>
-      <c r="H18" s="15">
+      <c r="L18" s="15">
         <v>2817062</v>
       </c>
-      <c r="I18" s="15">
+      <c r="M18" s="15">
         <v>2544192</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>3157236</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1034,62 +1239,107 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
+        <v>183938</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>156451</v>
+      </c>
+      <c r="K19" s="11">
         <v>158526</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>301968</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-89340</v>
+      </c>
+      <c r="F20" s="9">
+        <v>120960</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-231019</v>
+      </c>
+      <c r="H20" s="9">
+        <v>22599</v>
+      </c>
+      <c r="I20" s="9">
         <v>-156451</v>
       </c>
-      <c r="F20" s="9">
-        <v>206345</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="J20" s="9">
+        <v>-158526</v>
+      </c>
+      <c r="K20" s="9">
         <v>-535680</v>
       </c>
-      <c r="H20" s="9">
+      <c r="L20" s="9">
         <v>-700810</v>
       </c>
-      <c r="I20" s="9">
+      <c r="M20" s="9">
         <v>301968</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="9">
+        <v>-441337</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>750919</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1605236</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1402084</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1759683</v>
+      </c>
+      <c r="I21" s="13">
         <v>1477462</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>2885072</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>1977948</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>2116252</v>
       </c>
-      <c r="I21" s="13">
+      <c r="M21" s="13">
         <v>2846160</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>3650421</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1108,30 +1358,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>750919</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1605236</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1402084</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1759683</v>
+      </c>
+      <c r="I23" s="13">
         <v>1477462</v>
       </c>
-      <c r="F23" s="13">
+      <c r="J23" s="13">
         <v>2885072</v>
       </c>
-      <c r="G23" s="13">
+      <c r="K23" s="13">
         <v>1977948</v>
       </c>
-      <c r="H23" s="13">
+      <c r="L23" s="13">
         <v>2116252</v>
       </c>
-      <c r="I23" s="13">
+      <c r="M23" s="13">
         <v>2846160</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>3650421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1140,8 +1420,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1150,8 +1435,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1160,10 +1450,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1182,8 +1477,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1192,174 +1502,284 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>543</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2295</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1210</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1711</v>
+      </c>
+      <c r="I30" s="11">
         <v>219</v>
       </c>
-      <c r="F30" s="11">
+      <c r="J30" s="11">
         <v>1091</v>
       </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
         <v>1606</v>
       </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
         <v>2362</v>
       </c>
-      <c r="I30" s="11">
+      <c r="M30" s="11">
         <v>1127</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="11">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>6956</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8651</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5075</v>
+      </c>
+      <c r="H31" s="9">
+        <v>4739</v>
+      </c>
+      <c r="I31" s="9">
         <v>2810</v>
       </c>
-      <c r="F31" s="9">
+      <c r="J31" s="9">
         <v>7805</v>
       </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
         <v>1190</v>
       </c>
-      <c r="H31" s="9">
+      <c r="L31" s="9">
         <v>5253</v>
       </c>
-      <c r="I31" s="9">
+      <c r="M31" s="9">
         <v>2880</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>695917</v>
+      </c>
+      <c r="F32" s="11">
+        <v>574435</v>
+      </c>
+      <c r="G32" s="11">
+        <v>434874</v>
+      </c>
+      <c r="H32" s="11">
+        <v>368591</v>
+      </c>
+      <c r="I32" s="11">
         <v>132638</v>
       </c>
-      <c r="F32" s="11">
+      <c r="J32" s="11">
         <v>390682</v>
       </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
         <v>184970</v>
       </c>
-      <c r="H32" s="11">
+      <c r="L32" s="11">
         <v>186202</v>
       </c>
-      <c r="I32" s="11">
+      <c r="M32" s="11">
         <v>324690</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>313974</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>0</v>
+      <c r="E33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>18132</v>
+      </c>
+      <c r="F34" s="11">
+        <v>15994</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1481</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1721</v>
+      </c>
+      <c r="I34" s="11">
         <v>7324</v>
       </c>
-      <c r="F34" s="11">
+      <c r="J34" s="11">
         <v>1224</v>
       </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
         <v>1647</v>
       </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11">
         <v>750</v>
       </c>
-      <c r="I34" s="11">
+      <c r="M34" s="11">
         <v>2291</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N34" s="11">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>721548</v>
+      </c>
+      <c r="F35" s="15">
+        <v>601375</v>
+      </c>
+      <c r="G35" s="15">
+        <v>442640</v>
+      </c>
+      <c r="H35" s="15">
+        <v>376762</v>
+      </c>
+      <c r="I35" s="15">
         <v>142991</v>
       </c>
-      <c r="F35" s="15">
+      <c r="J35" s="15">
         <v>400802</v>
       </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
         <v>189413</v>
       </c>
-      <c r="H35" s="15">
+      <c r="L35" s="15">
         <v>194567</v>
       </c>
-      <c r="I35" s="15">
+      <c r="M35" s="15">
         <v>330988</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>318075</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1368,8 +1788,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1378,8 +1803,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1388,10 +1818,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1410,8 +1845,23 @@
       <c r="I39" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1420,174 +1870,284 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>2408</v>
+      </c>
+      <c r="F42" s="11">
+        <v>-1448</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2716</v>
+      </c>
+      <c r="H42" s="11">
+        <v>455</v>
+      </c>
+      <c r="I42" s="11">
         <v>1113</v>
       </c>
-      <c r="F42" s="11">
+      <c r="J42" s="11">
         <v>3002</v>
       </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11">
         <v>2328</v>
       </c>
-      <c r="H42" s="11">
+      <c r="L42" s="11">
         <v>-1595</v>
       </c>
-      <c r="I42" s="11">
+      <c r="M42" s="11">
         <v>1512</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>4450</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2629</v>
+      </c>
+      <c r="G43" s="9">
+        <v>6412</v>
+      </c>
+      <c r="H43" s="9">
+        <v>15021</v>
+      </c>
+      <c r="I43" s="9">
         <v>8920</v>
       </c>
-      <c r="F43" s="9">
+      <c r="J43" s="9">
         <v>7785</v>
       </c>
-      <c r="G43" s="9">
+      <c r="K43" s="9">
         <v>13728</v>
       </c>
-      <c r="H43" s="9">
+      <c r="L43" s="9">
         <v>6492</v>
       </c>
-      <c r="I43" s="9">
+      <c r="M43" s="9">
         <v>9462</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N43" s="9">
+        <v>10506</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>23554</v>
+      </c>
+      <c r="F44" s="11">
+        <v>13910</v>
+      </c>
+      <c r="G44" s="11">
+        <v>29401</v>
+      </c>
+      <c r="H44" s="11">
+        <v>198264</v>
+      </c>
+      <c r="I44" s="11">
         <v>70387</v>
       </c>
-      <c r="F44" s="11">
+      <c r="J44" s="11">
         <v>-96657</v>
       </c>
-      <c r="G44" s="11">
+      <c r="K44" s="11">
         <v>110834</v>
       </c>
-      <c r="H44" s="11">
+      <c r="L44" s="11">
         <v>134401</v>
       </c>
-      <c r="I44" s="11">
+      <c r="M44" s="11">
         <v>68420</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>19092</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>0</v>
+      <c r="E45" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>11216</v>
+      </c>
+      <c r="F46" s="11">
+        <v>-3726</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2654</v>
+      </c>
+      <c r="H46" s="11">
+        <v>8489</v>
+      </c>
+      <c r="I46" s="11">
         <v>7199</v>
       </c>
-      <c r="F46" s="11">
+      <c r="J46" s="11">
         <v>9727</v>
       </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
         <v>18141</v>
       </c>
-      <c r="I46" s="11">
+      <c r="M46" s="11">
         <v>6769</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>41628</v>
+      </c>
+      <c r="F47" s="15">
+        <v>11365</v>
+      </c>
+      <c r="G47" s="15">
+        <v>41183</v>
+      </c>
+      <c r="H47" s="15">
+        <v>222229</v>
+      </c>
+      <c r="I47" s="15">
         <v>87619</v>
       </c>
-      <c r="F47" s="15">
+      <c r="J47" s="15">
         <v>-76143</v>
       </c>
-      <c r="G47" s="15">
+      <c r="K47" s="15">
         <v>126890</v>
       </c>
-      <c r="H47" s="15">
+      <c r="L47" s="15">
         <v>157439</v>
       </c>
-      <c r="I47" s="15">
+      <c r="M47" s="15">
         <v>86163</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1596,8 +2156,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1606,8 +2171,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1616,10 +2186,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1638,8 +2213,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1648,174 +2238,284 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>656</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-363</v>
+      </c>
+      <c r="G54" s="11">
+        <v>2215</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1966</v>
+      </c>
+      <c r="I54" s="11">
         <v>1389</v>
       </c>
-      <c r="F54" s="11">
+      <c r="J54" s="11">
         <v>1320</v>
       </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
         <v>1572</v>
       </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
         <v>-360</v>
       </c>
-      <c r="I54" s="11">
+      <c r="M54" s="11">
         <v>1743</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="11">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>2755</v>
+      </c>
+      <c r="F55" s="9">
+        <v>6205</v>
+      </c>
+      <c r="G55" s="9">
+        <v>6748</v>
+      </c>
+      <c r="H55" s="9">
+        <v>12777</v>
+      </c>
+      <c r="I55" s="9">
         <v>8103</v>
       </c>
-      <c r="F55" s="9">
+      <c r="J55" s="9">
         <v>14395</v>
       </c>
-      <c r="G55" s="9">
+      <c r="K55" s="9">
         <v>9665</v>
       </c>
-      <c r="H55" s="9">
+      <c r="L55" s="9">
         <v>8865</v>
       </c>
-      <c r="I55" s="9">
+      <c r="M55" s="9">
         <v>11342</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N55" s="9">
+        <v>10586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>145036</v>
       </c>
       <c r="F56" s="11">
+        <v>153471</v>
+      </c>
+      <c r="G56" s="11">
+        <v>95684</v>
+      </c>
+      <c r="H56" s="11">
+        <v>140082</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
         <v>215533</v>
       </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
         <v>109602</v>
       </c>
-      <c r="H56" s="11">
+      <c r="L56" s="11">
         <v>-4087</v>
       </c>
-      <c r="I56" s="11">
+      <c r="M56" s="11">
         <v>79136</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>24791</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>0</v>
+      <c r="E57" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>13364</v>
+      </c>
+      <c r="F58" s="11">
+        <v>10787</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2414</v>
+      </c>
+      <c r="H58" s="11">
+        <v>10544</v>
+      </c>
+      <c r="I58" s="11">
         <v>7259</v>
       </c>
-      <c r="F58" s="11">
+      <c r="J58" s="11">
         <v>7686</v>
       </c>
-      <c r="G58" s="11">
+      <c r="K58" s="11">
         <v>897</v>
       </c>
-      <c r="H58" s="11">
+      <c r="L58" s="11">
         <v>16600</v>
       </c>
-      <c r="I58" s="11">
+      <c r="M58" s="11">
         <v>6855</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N58" s="11">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>161811</v>
+      </c>
+      <c r="F59" s="15">
+        <v>170100</v>
+      </c>
+      <c r="G59" s="15">
+        <v>107061</v>
+      </c>
+      <c r="H59" s="15">
+        <v>165369</v>
+      </c>
+      <c r="I59" s="15">
         <v>16751</v>
       </c>
-      <c r="F59" s="15">
+      <c r="J59" s="15">
         <v>238934</v>
       </c>
-      <c r="G59" s="15">
+      <c r="K59" s="15">
         <v>121736</v>
       </c>
-      <c r="H59" s="15">
+      <c r="L59" s="15">
         <v>21018</v>
       </c>
-      <c r="I59" s="15">
+      <c r="M59" s="15">
         <v>99076</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N59" s="15">
+        <v>49393</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1824,8 +2524,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1834,8 +2539,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1844,10 +2554,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1866,8 +2581,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1876,174 +2606,284 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>2295</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1210</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1711</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1367</v>
+      </c>
+      <c r="I66" s="11">
         <v>1091</v>
       </c>
-      <c r="F66" s="11">
+      <c r="J66" s="11">
         <v>1606</v>
       </c>
-      <c r="G66" s="11">
+      <c r="K66" s="11">
         <v>2362</v>
       </c>
-      <c r="H66" s="11">
+      <c r="L66" s="11">
         <v>1127</v>
       </c>
-      <c r="I66" s="11">
+      <c r="M66" s="11">
         <v>896</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N66" s="11">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>8651</v>
+      </c>
+      <c r="F67" s="9">
+        <v>5075</v>
+      </c>
+      <c r="G67" s="9">
+        <v>4739</v>
+      </c>
+      <c r="H67" s="9">
+        <v>6988</v>
+      </c>
+      <c r="I67" s="9">
         <v>7805</v>
       </c>
-      <c r="F67" s="9">
+      <c r="J67" s="9">
         <v>1190</v>
       </c>
-      <c r="G67" s="9">
+      <c r="K67" s="9">
         <v>5253</v>
       </c>
-      <c r="H67" s="9">
+      <c r="L67" s="9">
         <v>2880</v>
       </c>
-      <c r="I67" s="9">
+      <c r="M67" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N67" s="9">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>574435</v>
+      </c>
+      <c r="F68" s="11">
+        <v>434874</v>
+      </c>
+      <c r="G68" s="11">
+        <v>368591</v>
+      </c>
+      <c r="H68" s="11">
+        <v>320295</v>
+      </c>
+      <c r="I68" s="11">
         <v>390682</v>
       </c>
-      <c r="F68" s="11">
+      <c r="J68" s="11">
         <v>184970</v>
       </c>
-      <c r="G68" s="11">
+      <c r="K68" s="11">
         <v>186202</v>
       </c>
-      <c r="H68" s="11">
+      <c r="L68" s="11">
         <v>324690</v>
       </c>
-      <c r="I68" s="11">
+      <c r="M68" s="11">
         <v>313974</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="11">
+        <v>308275</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9">
-        <v>0</v>
+      <c r="E69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>15994</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1481</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1721</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1284</v>
+      </c>
+      <c r="I70" s="11">
         <v>1224</v>
       </c>
-      <c r="F70" s="11">
+      <c r="J70" s="11">
         <v>1647</v>
       </c>
-      <c r="G70" s="11">
+      <c r="K70" s="11">
         <v>750</v>
       </c>
-      <c r="H70" s="11">
+      <c r="L70" s="11">
         <v>2291</v>
       </c>
-      <c r="I70" s="11">
+      <c r="M70" s="11">
         <v>2205</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N70" s="11">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>601375</v>
+      </c>
+      <c r="F71" s="15">
+        <v>442640</v>
+      </c>
+      <c r="G71" s="15">
+        <v>376762</v>
+      </c>
+      <c r="H71" s="15">
+        <v>329934</v>
+      </c>
+      <c r="I71" s="15">
         <v>400802</v>
       </c>
-      <c r="F71" s="15">
+      <c r="J71" s="15">
         <v>189413</v>
       </c>
-      <c r="G71" s="15">
+      <c r="K71" s="15">
         <v>194567</v>
       </c>
-      <c r="H71" s="15">
+      <c r="L71" s="15">
         <v>330988</v>
       </c>
-      <c r="I71" s="15">
+      <c r="M71" s="15">
         <v>318075</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N71" s="15">
+        <v>311364</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2052,8 +2892,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2062,8 +2907,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2072,10 +2922,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2094,8 +2949,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2104,174 +2974,284 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>80710</v>
+      </c>
+      <c r="F78" s="11">
+        <v>271883</v>
+      </c>
+      <c r="G78" s="11">
+        <v>248123</v>
+      </c>
+      <c r="H78" s="11">
+        <v>361634</v>
+      </c>
+      <c r="I78" s="11">
         <v>37164</v>
       </c>
-      <c r="F78" s="11">
+      <c r="J78" s="11">
         <v>160410</v>
       </c>
-      <c r="G78" s="11">
+      <c r="K78" s="11">
         <v>344672</v>
       </c>
-      <c r="H78" s="11">
+      <c r="L78" s="11">
         <v>575615</v>
       </c>
-      <c r="I78" s="11">
+      <c r="M78" s="11">
         <v>191552</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N78" s="11">
+        <v>156073</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>154011</v>
+      </c>
+      <c r="F79" s="9">
+        <v>226615</v>
+      </c>
+      <c r="G79" s="9">
+        <v>151241</v>
+      </c>
+      <c r="H79" s="9">
+        <v>199308</v>
+      </c>
+      <c r="I79" s="9">
         <v>70914</v>
       </c>
-      <c r="F79" s="9">
+      <c r="J79" s="9">
         <v>363902</v>
       </c>
-      <c r="G79" s="9">
+      <c r="K79" s="9">
         <v>55719</v>
       </c>
-      <c r="H79" s="9">
+      <c r="L79" s="9">
         <v>456965</v>
       </c>
-      <c r="I79" s="9">
+      <c r="M79" s="9">
         <v>131121</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N79" s="9">
+        <v>54282</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>404711</v>
+      </c>
+      <c r="F80" s="11">
+        <v>333163</v>
+      </c>
+      <c r="G80" s="11">
+        <v>253224</v>
+      </c>
+      <c r="H80" s="11">
+        <v>217838</v>
+      </c>
+      <c r="I80" s="11">
         <v>87936</v>
       </c>
-      <c r="F80" s="11">
+      <c r="J80" s="11">
         <v>454688</v>
       </c>
-      <c r="G80" s="11">
+      <c r="K80" s="11">
         <v>257456</v>
       </c>
-      <c r="H80" s="11">
+      <c r="L80" s="11">
         <v>278119</v>
       </c>
-      <c r="I80" s="11">
+      <c r="M80" s="11">
         <v>784530</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N80" s="11">
+        <v>1154695</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
-        <v>0</v>
+      <c r="E81" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>293728</v>
+      </c>
+      <c r="F82" s="11">
+        <v>270772</v>
+      </c>
+      <c r="G82" s="11">
+        <v>66840</v>
+      </c>
+      <c r="H82" s="11">
+        <v>88259</v>
+      </c>
+      <c r="I82" s="11">
         <v>135246</v>
       </c>
-      <c r="F82" s="11">
+      <c r="J82" s="11">
         <v>88157</v>
       </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11">
         <v>158815</v>
       </c>
-      <c r="H82" s="11">
+      <c r="L82" s="11">
         <v>70735</v>
       </c>
-      <c r="I82" s="11">
+      <c r="M82" s="11">
         <v>332671</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>206791</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>933160</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1102433</v>
+      </c>
+      <c r="G83" s="15">
+        <v>719428</v>
+      </c>
+      <c r="H83" s="15">
+        <v>867039</v>
+      </c>
+      <c r="I83" s="15">
         <v>331260</v>
       </c>
-      <c r="F83" s="15">
+      <c r="J83" s="15">
         <v>1067157</v>
       </c>
-      <c r="G83" s="15">
+      <c r="K83" s="15">
         <v>816662</v>
       </c>
-      <c r="H83" s="15">
+      <c r="L83" s="15">
         <v>1381434</v>
       </c>
-      <c r="I83" s="15">
+      <c r="M83" s="15">
         <v>1439874</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="15">
+        <v>1571841</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2280,8 +3260,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2290,8 +3275,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2300,10 +3290,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2322,8 +3317,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2332,174 +3342,284 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>265597</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-54073</v>
+      </c>
+      <c r="G90" s="11">
+        <v>581669</v>
+      </c>
+      <c r="H90" s="11">
+        <v>67448</v>
+      </c>
+      <c r="I90" s="11">
         <v>303718</v>
       </c>
-      <c r="F90" s="11">
+      <c r="J90" s="11">
         <v>607439</v>
       </c>
-      <c r="G90" s="11">
+      <c r="K90" s="11">
         <v>594571</v>
       </c>
-      <c r="H90" s="11">
+      <c r="L90" s="11">
         <v>-367616</v>
       </c>
-      <c r="I90" s="11">
+      <c r="M90" s="11">
         <v>499045</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N90" s="11">
+        <v>39214</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>133535</v>
+      </c>
+      <c r="F91" s="9">
+        <v>77999</v>
+      </c>
+      <c r="G91" s="9">
+        <v>331868</v>
+      </c>
+      <c r="H91" s="9">
+        <v>659450</v>
+      </c>
+      <c r="I91" s="9">
         <v>427838</v>
       </c>
-      <c r="F91" s="9">
+      <c r="J91" s="9">
         <v>331381</v>
       </c>
-      <c r="G91" s="9">
+      <c r="K91" s="9">
         <v>1012464</v>
       </c>
-      <c r="H91" s="9">
+      <c r="L91" s="9">
         <v>4848</v>
       </c>
-      <c r="I91" s="9">
+      <c r="M91" s="9">
         <v>489769</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N91" s="9">
+        <v>571369</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>13561</v>
+      </c>
+      <c r="F92" s="11">
+        <v>8237</v>
+      </c>
+      <c r="G92" s="11">
+        <v>21163</v>
+      </c>
+      <c r="H92" s="11">
+        <v>411589</v>
+      </c>
+      <c r="I92" s="11">
         <v>25873</v>
       </c>
-      <c r="F92" s="11">
+      <c r="J92" s="11">
         <v>99531</v>
       </c>
-      <c r="G92" s="11">
+      <c r="K92" s="11">
         <v>185910</v>
       </c>
-      <c r="H92" s="11">
+      <c r="L92" s="11">
         <v>596114</v>
       </c>
-      <c r="I92" s="11">
+      <c r="M92" s="11">
         <v>556486</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N92" s="11">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>0</v>
+      <c r="E93" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>160210</v>
+      </c>
+      <c r="F94" s="11">
+        <v>45628</v>
+      </c>
+      <c r="G94" s="11">
+        <v>145219</v>
+      </c>
+      <c r="H94" s="11">
+        <v>281035</v>
+      </c>
+      <c r="I94" s="11">
         <v>276003</v>
       </c>
-      <c r="F94" s="11">
+      <c r="J94" s="11">
         <v>501324</v>
       </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
         <v>1694715</v>
       </c>
-      <c r="I94" s="11">
+      <c r="M94" s="11">
         <v>594425</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N94" s="11">
+        <v>1296783</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>572903</v>
+      </c>
+      <c r="F95" s="15">
+        <v>77791</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1079919</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1419522</v>
+      </c>
+      <c r="I95" s="15">
         <v>1033432</v>
       </c>
-      <c r="F95" s="15">
+      <c r="J95" s="15">
         <v>1539675</v>
       </c>
-      <c r="G95" s="15">
+      <c r="K95" s="15">
         <v>1792945</v>
       </c>
-      <c r="H95" s="15">
+      <c r="L95" s="15">
         <v>1928061</v>
       </c>
-      <c r="I95" s="15">
+      <c r="M95" s="15">
         <v>2139725</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N95" s="15">
+        <v>1915028</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2508,8 +3628,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2518,8 +3643,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2528,10 +3658,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2550,8 +3685,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2560,174 +3710,284 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>74424</v>
+      </c>
+      <c r="F102" s="11">
+        <v>-30313</v>
+      </c>
+      <c r="G102" s="11">
+        <v>468158</v>
+      </c>
+      <c r="H102" s="11">
+        <v>221284</v>
+      </c>
+      <c r="I102" s="11">
         <v>351106</v>
       </c>
-      <c r="F102" s="11">
+      <c r="J102" s="11">
         <v>423177</v>
       </c>
-      <c r="G102" s="11">
+      <c r="K102" s="11">
         <v>363628</v>
       </c>
-      <c r="H102" s="11">
+      <c r="L102" s="11">
         <v>16447</v>
       </c>
-      <c r="I102" s="11">
+      <c r="M102" s="11">
         <v>534524</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N102" s="11">
+        <v>-37985</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>60931</v>
+      </c>
+      <c r="F103" s="9">
+        <v>153373</v>
+      </c>
+      <c r="G103" s="9">
+        <v>283801</v>
+      </c>
+      <c r="H103" s="9">
+        <v>512662</v>
+      </c>
+      <c r="I103" s="9">
         <v>410033</v>
       </c>
-      <c r="F103" s="9">
+      <c r="J103" s="9">
         <v>639563</v>
       </c>
-      <c r="G103" s="9">
+      <c r="K103" s="9">
         <v>611218</v>
       </c>
-      <c r="H103" s="9">
+      <c r="L103" s="9">
         <v>330692</v>
       </c>
-      <c r="I103" s="9">
+      <c r="M103" s="9">
         <v>566608</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N103" s="9">
+        <v>575929</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>85109</v>
+      </c>
+      <c r="F104" s="11">
+        <v>88176</v>
+      </c>
+      <c r="G104" s="11">
+        <v>56549</v>
+      </c>
+      <c r="H104" s="11">
+        <v>200611</v>
+      </c>
+      <c r="I104" s="11">
         <v>1</v>
       </c>
-      <c r="F104" s="11">
+      <c r="J104" s="11">
         <v>296763</v>
       </c>
-      <c r="G104" s="11">
+      <c r="K104" s="11">
         <v>165247</v>
       </c>
-      <c r="H104" s="11">
+      <c r="L104" s="11">
         <v>89703</v>
       </c>
-      <c r="I104" s="11">
+      <c r="M104" s="11">
         <v>186321</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N104" s="11">
+        <v>152105</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>0</v>
+      <c r="E105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>183166</v>
+      </c>
+      <c r="F106" s="11">
+        <v>249560</v>
+      </c>
+      <c r="G106" s="11">
+        <v>123800</v>
+      </c>
+      <c r="H106" s="11">
+        <v>291927</v>
+      </c>
+      <c r="I106" s="11">
         <v>265213</v>
       </c>
-      <c r="F106" s="11">
+      <c r="J106" s="11">
         <v>430666</v>
       </c>
-      <c r="G106" s="11">
+      <c r="K106" s="11">
         <v>88080</v>
       </c>
-      <c r="H106" s="11">
+      <c r="L106" s="11">
         <v>1432779</v>
       </c>
-      <c r="I106" s="11">
+      <c r="M106" s="11">
         <v>720305</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N106" s="11">
+        <v>1286131</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>403630</v>
+      </c>
+      <c r="F107" s="15">
+        <v>460796</v>
+      </c>
+      <c r="G107" s="15">
+        <v>932308</v>
+      </c>
+      <c r="H107" s="15">
+        <v>1226484</v>
+      </c>
+      <c r="I107" s="15">
         <v>1026353</v>
       </c>
-      <c r="F107" s="15">
+      <c r="J107" s="15">
         <v>1790169</v>
       </c>
-      <c r="G107" s="15">
+      <c r="K107" s="15">
         <v>1228173</v>
       </c>
-      <c r="H107" s="15">
+      <c r="L107" s="15">
         <v>1869621</v>
       </c>
-      <c r="I107" s="15">
+      <c r="M107" s="15">
         <v>2007758</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N107" s="15">
+        <v>1976180</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2736,8 +3996,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2746,8 +4011,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2756,10 +4026,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2778,8 +4053,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2788,174 +4078,284 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>271883</v>
+      </c>
+      <c r="F114" s="11">
+        <v>248123</v>
+      </c>
+      <c r="G114" s="11">
+        <v>361634</v>
+      </c>
+      <c r="H114" s="11">
+        <v>207798</v>
+      </c>
+      <c r="I114" s="11">
         <v>160410</v>
       </c>
-      <c r="F114" s="11">
+      <c r="J114" s="11">
         <v>344672</v>
       </c>
-      <c r="G114" s="11">
+      <c r="K114" s="11">
         <v>575615</v>
       </c>
-      <c r="H114" s="11">
+      <c r="L114" s="11">
         <v>191552</v>
       </c>
-      <c r="I114" s="11">
+      <c r="M114" s="11">
         <v>156073</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N114" s="11">
+        <v>233272</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>226615</v>
+      </c>
+      <c r="F115" s="9">
+        <v>151241</v>
+      </c>
+      <c r="G115" s="9">
+        <v>199308</v>
+      </c>
+      <c r="H115" s="9">
+        <v>346097</v>
+      </c>
+      <c r="I115" s="9">
         <v>363902</v>
       </c>
-      <c r="F115" s="9">
+      <c r="J115" s="9">
         <v>55719</v>
       </c>
-      <c r="G115" s="9">
+      <c r="K115" s="9">
         <v>456965</v>
       </c>
-      <c r="H115" s="9">
+      <c r="L115" s="9">
         <v>131121</v>
       </c>
-      <c r="I115" s="9">
+      <c r="M115" s="9">
         <v>54282</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N115" s="9">
+        <v>49722</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>333163</v>
+      </c>
+      <c r="F116" s="11">
+        <v>253224</v>
+      </c>
+      <c r="G116" s="11">
+        <v>217838</v>
+      </c>
+      <c r="H116" s="11">
+        <v>428816</v>
+      </c>
+      <c r="I116" s="11">
         <v>454688</v>
       </c>
-      <c r="F116" s="11">
+      <c r="J116" s="11">
         <v>257456</v>
       </c>
-      <c r="G116" s="11">
+      <c r="K116" s="11">
         <v>278119</v>
       </c>
-      <c r="H116" s="11">
+      <c r="L116" s="11">
         <v>784530</v>
       </c>
-      <c r="I116" s="11">
+      <c r="M116" s="11">
         <v>1154695</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N116" s="11">
+        <v>1010252</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9">
-        <v>0</v>
+      <c r="E117" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H117" s="9">
+        <v>0</v>
+      </c>
+      <c r="I117" s="9">
+        <v>0</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>270772</v>
+      </c>
+      <c r="F118" s="11">
+        <v>66840</v>
+      </c>
+      <c r="G118" s="11">
+        <v>88259</v>
+      </c>
+      <c r="H118" s="11">
+        <v>77367</v>
+      </c>
+      <c r="I118" s="11">
         <v>88157</v>
       </c>
-      <c r="F118" s="11">
+      <c r="J118" s="11">
         <v>158815</v>
       </c>
-      <c r="G118" s="11">
+      <c r="K118" s="11">
         <v>70735</v>
       </c>
-      <c r="H118" s="11">
+      <c r="L118" s="11">
         <v>332671</v>
       </c>
-      <c r="I118" s="11">
+      <c r="M118" s="11">
         <v>206791</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N118" s="11">
+        <v>217443</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>1102433</v>
+      </c>
+      <c r="F119" s="15">
+        <v>719428</v>
+      </c>
+      <c r="G119" s="15">
+        <v>867039</v>
+      </c>
+      <c r="H119" s="15">
+        <v>1060078</v>
+      </c>
+      <c r="I119" s="15">
         <v>1067157</v>
       </c>
-      <c r="F119" s="15">
+      <c r="J119" s="15">
         <v>816662</v>
       </c>
-      <c r="G119" s="15">
+      <c r="K119" s="15">
         <v>1381434</v>
       </c>
-      <c r="H119" s="15">
+      <c r="L119" s="15">
         <v>1439874</v>
       </c>
-      <c r="I119" s="15">
+      <c r="M119" s="15">
         <v>1571841</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N119" s="15">
+        <v>1510689</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2964,8 +4364,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2974,8 +4379,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2984,10 +4394,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3006,8 +4421,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3016,104 +4446,169 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>148637201</v>
+      </c>
+      <c r="F125" s="9">
+        <v>118467538</v>
+      </c>
+      <c r="G125" s="9">
+        <v>205060331</v>
+      </c>
+      <c r="H125" s="9">
+        <v>211358270</v>
+      </c>
+      <c r="I125" s="9">
         <v>152010241</v>
       </c>
-      <c r="F125" s="9">
+      <c r="J125" s="9">
         <v>147030247</v>
       </c>
-      <c r="G125" s="9">
+      <c r="K125" s="9">
         <v>214615193</v>
       </c>
-      <c r="H125" s="9">
+      <c r="L125" s="9">
         <v>243698137</v>
       </c>
-      <c r="I125" s="9">
+      <c r="M125" s="9">
         <v>169966282</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N125" s="9">
+        <v>174188616</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>22140742</v>
+      </c>
+      <c r="F126" s="11">
+        <v>26195238</v>
+      </c>
+      <c r="G126" s="11">
+        <v>29801182</v>
+      </c>
+      <c r="H126" s="11">
+        <v>42056974</v>
+      </c>
+      <c r="I126" s="11">
         <v>49527333</v>
       </c>
-      <c r="F126" s="11">
+      <c r="J126" s="11">
         <v>46624215</v>
       </c>
-      <c r="G126" s="11">
+      <c r="K126" s="11">
         <v>46822689</v>
       </c>
-      <c r="H126" s="11">
+      <c r="L126" s="11">
         <v>86991243</v>
       </c>
-      <c r="I126" s="11">
+      <c r="M126" s="11">
         <v>45528125</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N126" s="11">
+        <v>54282000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>581551</v>
+      </c>
+      <c r="F127" s="9">
+        <v>579984</v>
+      </c>
+      <c r="G127" s="9">
+        <v>582293</v>
+      </c>
+      <c r="H127" s="9">
+        <v>591002</v>
+      </c>
+      <c r="I127" s="9">
         <v>1338816</v>
       </c>
-      <c r="F127" s="9">
+      <c r="J127" s="9">
         <v>1163831</v>
       </c>
-      <c r="G127" s="9">
+      <c r="K127" s="9">
         <v>1391880</v>
       </c>
-      <c r="H127" s="9">
+      <c r="L127" s="9">
         <v>1493641</v>
       </c>
-      <c r="I127" s="9">
+      <c r="M127" s="9">
         <v>2416243</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N127" s="9">
+        <v>3677677</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>16199426</v>
+      </c>
+      <c r="F128" s="11">
+        <v>16929599</v>
+      </c>
+      <c r="G128" s="11">
+        <v>45131668</v>
+      </c>
+      <c r="H128" s="11">
+        <v>51283556</v>
+      </c>
+      <c r="I128" s="11">
         <v>60254673</v>
       </c>
-      <c r="F128" s="11">
+      <c r="J128" s="11">
         <v>72023693</v>
       </c>
-      <c r="G128" s="11">
+      <c r="K128" s="11">
         <v>96426837</v>
       </c>
-      <c r="H128" s="11">
+      <c r="L128" s="11">
         <v>94313333</v>
       </c>
-      <c r="I128" s="11">
+      <c r="M128" s="11">
         <v>145207770</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N128" s="11">
+        <v>93782766</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3122,8 +4617,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3132,8 +4632,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3142,10 +4647,15 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3164,8 +4674,23 @@
       <c r="I132" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3174,104 +4699,169 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9">
+        <v>110297757</v>
+      </c>
+      <c r="F134" s="9">
+        <v>37343232</v>
+      </c>
+      <c r="G134" s="9">
+        <v>214163844</v>
+      </c>
+      <c r="H134" s="9">
+        <v>148237363</v>
+      </c>
+      <c r="I134" s="9">
         <v>272882300</v>
       </c>
-      <c r="F134" s="9">
+      <c r="J134" s="9">
         <v>202344770</v>
       </c>
-      <c r="G134" s="9">
+      <c r="K134" s="9">
         <v>255399914</v>
       </c>
-      <c r="H134" s="9">
+      <c r="L134" s="9">
         <v>230480251</v>
       </c>
-      <c r="I134" s="9">
+      <c r="M134" s="9">
         <v>330056217</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N134" s="9">
+        <v>303984496</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
+        <v>30007865</v>
+      </c>
+      <c r="F135" s="11">
+        <v>29668695</v>
+      </c>
+      <c r="G135" s="11">
+        <v>51757330</v>
+      </c>
+      <c r="H135" s="11">
+        <v>43901871</v>
+      </c>
+      <c r="I135" s="11">
         <v>47963901</v>
       </c>
-      <c r="F135" s="11">
+      <c r="J135" s="11">
         <v>42566602</v>
       </c>
-      <c r="G135" s="11">
+      <c r="K135" s="11">
         <v>73751748</v>
       </c>
-      <c r="H135" s="11">
+      <c r="L135" s="11">
         <v>746765</v>
       </c>
-      <c r="I135" s="11">
+      <c r="M135" s="11">
         <v>51761678</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N135" s="11">
+        <v>54385018</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
+        <v>575741</v>
+      </c>
+      <c r="F136" s="9">
+        <v>592164</v>
+      </c>
+      <c r="G136" s="9">
+        <v>719805</v>
+      </c>
+      <c r="H136" s="9">
+        <v>2075964</v>
+      </c>
+      <c r="I136" s="9">
         <v>367582</v>
       </c>
-      <c r="F136" s="9">
+      <c r="J136" s="9">
         <v>-1029734</v>
       </c>
-      <c r="G136" s="9">
+      <c r="K136" s="9">
         <v>1677373</v>
       </c>
-      <c r="H136" s="9">
+      <c r="L136" s="9">
         <v>4435339</v>
       </c>
-      <c r="I136" s="9">
+      <c r="M136" s="9">
         <v>8133382</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N136" s="9">
+        <v>401320</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
+        <v>14284058</v>
+      </c>
+      <c r="F137" s="11">
+        <v>-12245840</v>
+      </c>
+      <c r="G137" s="11">
+        <v>54717031</v>
+      </c>
+      <c r="H137" s="11">
+        <v>33105784</v>
+      </c>
+      <c r="I137" s="11">
         <v>38339075</v>
       </c>
-      <c r="F137" s="11">
+      <c r="J137" s="11">
         <v>51539426</v>
       </c>
-      <c r="G137" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H137" s="11">
+      <c r="K137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="11">
         <v>93419051</v>
       </c>
-      <c r="I137" s="11">
+      <c r="M137" s="11">
         <v>87815778</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N137" s="11">
+        <v>100099035</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3280,8 +4870,13 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3290,8 +4885,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3300,10 +4900,15 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3322,8 +4927,23 @@
       <c r="I141" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3332,104 +4952,169 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>113451220</v>
+      </c>
+      <c r="F143" s="9">
+        <v>83506887</v>
+      </c>
+      <c r="G143" s="9">
+        <v>211358014</v>
+      </c>
+      <c r="H143" s="9">
+        <v>112555443</v>
+      </c>
+      <c r="I143" s="9">
         <v>252776098</v>
       </c>
-      <c r="F143" s="9">
+      <c r="J143" s="9">
         <v>320588636</v>
       </c>
-      <c r="G143" s="9">
+      <c r="K143" s="9">
         <v>231315522</v>
       </c>
-      <c r="H143" s="9">
+      <c r="L143" s="9">
         <v>-45686111</v>
       </c>
-      <c r="I143" s="9">
+      <c r="M143" s="9">
         <v>306668962</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N143" s="9">
+        <v>294457364</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>22116515</v>
+      </c>
+      <c r="F144" s="11">
+        <v>24717647</v>
+      </c>
+      <c r="G144" s="11">
+        <v>42057054</v>
+      </c>
+      <c r="H144" s="11">
+        <v>40123816</v>
+      </c>
+      <c r="I144" s="11">
         <v>50602616</v>
       </c>
-      <c r="F144" s="11">
+      <c r="J144" s="11">
         <v>44429524</v>
       </c>
-      <c r="G144" s="11">
+      <c r="K144" s="11">
         <v>63240352</v>
       </c>
-      <c r="H144" s="11">
+      <c r="L144" s="11">
         <v>37303102</v>
       </c>
-      <c r="I144" s="11">
+      <c r="M144" s="11">
         <v>49956621</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N144" s="11">
+        <v>54404780</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
+      <c r="E145" s="9">
+        <v>586813</v>
       </c>
       <c r="F145" s="9">
+        <v>574545</v>
+      </c>
+      <c r="G145" s="9">
+        <v>590997</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1432097</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" s="9">
         <v>1376880</v>
       </c>
-      <c r="G145" s="9">
+      <c r="K145" s="9">
         <v>1507701</v>
       </c>
-      <c r="H145" s="9">
+      <c r="L145" s="9">
         <v>-21948373</v>
       </c>
-      <c r="I145" s="9">
+      <c r="M145" s="9">
         <v>2354440</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N145" s="9">
+        <v>6135493</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>13705926</v>
+      </c>
+      <c r="F146" s="11">
+        <v>23135255</v>
+      </c>
+      <c r="G146" s="11">
+        <v>51284176</v>
+      </c>
+      <c r="H146" s="11">
+        <v>27686552</v>
+      </c>
+      <c r="I146" s="11">
         <v>36535749</v>
       </c>
-      <c r="F146" s="11">
+      <c r="J146" s="11">
         <v>56032527</v>
       </c>
-      <c r="G146" s="11">
+      <c r="K146" s="11">
         <v>98193980</v>
       </c>
-      <c r="H146" s="11">
+      <c r="L146" s="11">
         <v>86311988</v>
       </c>
-      <c r="I146" s="11">
+      <c r="M146" s="11">
         <v>105077316</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N146" s="11">
+        <v>90924779</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3438,8 +5123,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3448,8 +5138,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3458,10 +5153,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3480,8 +5180,23 @@
       <c r="I150" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3490,104 +5205,169 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D152" s="9"/>
-      <c r="E152" s="9">
+      <c r="E152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="9">
+        <v>152010241</v>
+      </c>
+      <c r="I152" s="9">
         <v>147030247</v>
       </c>
-      <c r="F152" s="9">
+      <c r="J152" s="9">
         <v>214615193</v>
       </c>
-      <c r="G152" s="9">
+      <c r="K152" s="9">
         <v>243698137</v>
       </c>
-      <c r="H152" s="9">
+      <c r="L152" s="9">
         <v>169966282</v>
       </c>
-      <c r="I152" s="9">
+      <c r="M152" s="9">
         <v>174188616</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N152" s="9">
+        <v>202142114</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11">
+      <c r="E153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="11">
+        <v>49527333</v>
+      </c>
+      <c r="I153" s="11">
         <v>46624215</v>
       </c>
-      <c r="F153" s="11">
+      <c r="J153" s="11">
         <v>46822689</v>
       </c>
-      <c r="G153" s="11">
+      <c r="K153" s="11">
         <v>86991243</v>
       </c>
-      <c r="H153" s="11">
+      <c r="L153" s="11">
         <v>45528125</v>
       </c>
-      <c r="I153" s="11">
+      <c r="M153" s="11">
         <v>54282000</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N153" s="11">
+        <v>54045652</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9">
+      <c r="E154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="9">
+        <v>1338816</v>
+      </c>
+      <c r="I154" s="9">
         <v>1163831</v>
       </c>
-      <c r="F154" s="9">
+      <c r="J154" s="9">
         <v>1391880</v>
       </c>
-      <c r="G154" s="9">
+      <c r="K154" s="9">
         <v>1493641</v>
       </c>
-      <c r="H154" s="9">
+      <c r="L154" s="9">
         <v>2416243</v>
       </c>
-      <c r="I154" s="9">
+      <c r="M154" s="9">
         <v>3677677</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N154" s="9">
+        <v>3277113</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11">
+      <c r="E155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="11">
+        <v>60254673</v>
+      </c>
+      <c r="I155" s="11">
         <v>72023693</v>
       </c>
-      <c r="F155" s="11">
+      <c r="J155" s="11">
         <v>96426837</v>
       </c>
-      <c r="G155" s="11">
+      <c r="K155" s="11">
         <v>94313333</v>
       </c>
-      <c r="H155" s="11">
+      <c r="L155" s="11">
         <v>145207770</v>
       </c>
-      <c r="I155" s="11">
+      <c r="M155" s="11">
         <v>93782766</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N155" s="11">
+        <v>214229557</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3596,8 +5376,13 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3606,8 +5391,13 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3616,10 +5406,15 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3638,8 +5433,23 @@
       <c r="I159" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3648,32 +5458,52 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>3957</v>
+      </c>
+      <c r="F161" s="9">
+        <v>13255</v>
+      </c>
+      <c r="G161" s="9">
+        <v>6189</v>
+      </c>
+      <c r="H161" s="9">
+        <v>3664</v>
+      </c>
+      <c r="I161" s="9">
         <v>-7259</v>
       </c>
-      <c r="F161" s="9">
+      <c r="J161" s="9">
         <v>7874</v>
       </c>
-      <c r="G161" s="9">
+      <c r="K161" s="9">
         <v>823</v>
       </c>
-      <c r="H161" s="9">
+      <c r="L161" s="9">
         <v>-823</v>
       </c>
-      <c r="I161" s="9">
+      <c r="M161" s="9">
         <v>5044</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N161" s="9">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -3692,10 +5522,25 @@
       <c r="I162" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="11">
+        <v>0</v>
+      </c>
+      <c r="K162" s="11">
+        <v>0</v>
+      </c>
+      <c r="L162" s="11">
+        <v>0</v>
+      </c>
+      <c r="M162" s="11">
+        <v>0</v>
+      </c>
+      <c r="N162" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3714,10 +5559,25 @@
       <c r="I163" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="9">
+        <v>0</v>
+      </c>
+      <c r="K163" s="9">
+        <v>0</v>
+      </c>
+      <c r="L163" s="9">
+        <v>0</v>
+      </c>
+      <c r="M163" s="9">
+        <v>0</v>
+      </c>
+      <c r="N163" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -3736,98 +5596,173 @@
       <c r="I164" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="11">
+        <v>0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>962</v>
+      </c>
+      <c r="F165" s="9">
+        <v>49658</v>
+      </c>
+      <c r="G165" s="9">
+        <v>14055</v>
+      </c>
+      <c r="H165" s="9">
+        <v>78648</v>
+      </c>
+      <c r="I165" s="9">
         <v>38577</v>
       </c>
-      <c r="F165" s="9">
+      <c r="J165" s="9">
         <v>72132</v>
       </c>
-      <c r="G165" s="9">
+      <c r="K165" s="9">
         <v>66108</v>
       </c>
-      <c r="H165" s="9">
+      <c r="L165" s="9">
         <v>60834</v>
       </c>
-      <c r="I165" s="9">
+      <c r="M165" s="9">
         <v>25922</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N165" s="9">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>31375</v>
+      </c>
+      <c r="F166" s="11">
+        <v>43678</v>
+      </c>
+      <c r="G166" s="11">
+        <v>33850</v>
+      </c>
+      <c r="H166" s="11">
+        <v>52118</v>
+      </c>
+      <c r="I166" s="11">
         <v>42984</v>
       </c>
-      <c r="F166" s="11">
+      <c r="J166" s="11">
         <v>126198</v>
       </c>
-      <c r="G166" s="11">
+      <c r="K166" s="11">
         <v>82923</v>
       </c>
-      <c r="H166" s="11">
+      <c r="L166" s="11">
         <v>91368</v>
       </c>
-      <c r="I166" s="11">
+      <c r="M166" s="11">
         <v>-85827</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N166" s="11">
+        <v>331809</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>132981</v>
+      </c>
+      <c r="F167" s="9">
+        <v>499310</v>
+      </c>
+      <c r="G167" s="9">
+        <v>172156</v>
+      </c>
+      <c r="H167" s="9">
+        <v>195968</v>
+      </c>
+      <c r="I167" s="9">
         <v>184062</v>
       </c>
-      <c r="F167" s="9">
+      <c r="J167" s="9">
         <v>188100</v>
       </c>
-      <c r="G167" s="9">
+      <c r="K167" s="9">
         <v>240592</v>
       </c>
-      <c r="H167" s="9">
+      <c r="L167" s="9">
         <v>120449</v>
       </c>
-      <c r="I167" s="9">
+      <c r="M167" s="9">
         <v>184264</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N167" s="9">
+        <v>197632</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>62025</v>
+      </c>
+      <c r="F168" s="11">
+        <v>113211</v>
+      </c>
+      <c r="G168" s="11">
+        <v>87560</v>
+      </c>
+      <c r="H168" s="11">
+        <v>79471</v>
+      </c>
+      <c r="I168" s="11">
         <v>-151327</v>
       </c>
-      <c r="F168" s="11">
+      <c r="J168" s="11">
         <v>433312</v>
       </c>
-      <c r="G168" s="11">
+      <c r="K168" s="11">
         <v>145930</v>
       </c>
-      <c r="H168" s="11">
+      <c r="L168" s="11">
         <v>137093</v>
       </c>
-      <c r="I168" s="11">
+      <c r="M168" s="11">
         <v>107025</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N168" s="11">
+        <v>327335</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -3846,52 +5781,97 @@
       <c r="I169" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="9">
+        <v>0</v>
+      </c>
+      <c r="K169" s="9">
+        <v>0</v>
+      </c>
+      <c r="L169" s="9">
+        <v>0</v>
+      </c>
+      <c r="M169" s="9">
+        <v>0</v>
+      </c>
+      <c r="N169" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>160570</v>
+      </c>
+      <c r="F170" s="11">
+        <v>256702</v>
+      </c>
+      <c r="G170" s="11">
+        <v>167157</v>
+      </c>
+      <c r="H170" s="11">
+        <v>6764</v>
+      </c>
+      <c r="I170" s="11">
         <v>439615</v>
       </c>
-      <c r="F170" s="11">
+      <c r="J170" s="11">
         <v>274302</v>
       </c>
-      <c r="G170" s="11">
+      <c r="K170" s="11">
         <v>205165</v>
       </c>
-      <c r="H170" s="11">
+      <c r="L170" s="11">
         <v>416826</v>
       </c>
-      <c r="I170" s="11">
+      <c r="M170" s="11">
         <v>198480</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N170" s="11">
+        <v>142615</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15">
+        <v>391870</v>
+      </c>
+      <c r="F171" s="15">
+        <v>975814</v>
+      </c>
+      <c r="G171" s="15">
+        <v>480967</v>
+      </c>
+      <c r="H171" s="15">
+        <v>416633</v>
+      </c>
+      <c r="I171" s="15">
         <v>546652</v>
       </c>
-      <c r="F171" s="15">
+      <c r="J171" s="15">
         <v>1101918</v>
       </c>
-      <c r="G171" s="15">
+      <c r="K171" s="15">
         <v>741541</v>
       </c>
-      <c r="H171" s="15">
+      <c r="L171" s="15">
         <v>825747</v>
       </c>
-      <c r="I171" s="15">
+      <c r="M171" s="15">
         <v>434908</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N171" s="15">
+        <v>1010023</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3900,8 +5880,13 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3910,8 +5895,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3920,10 +5910,15 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -3932,8 +5927,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3942,13 +5942,18 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -3956,13 +5961,18 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -3970,13 +5980,18 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -3984,123 +5999,128 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>

--- a/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75913DC9-8D21-41DF-BEAE-ECFF8E99571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA23B46-A1F6-422F-84B7-BED2C1658E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/05</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/08</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/11</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -723,12 +723,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -743,7 +743,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -792,7 +792,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -841,7 +841,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -893,155 +893,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>403630</v>
+        <v>460796</v>
       </c>
       <c r="F10" s="9">
-        <v>460796</v>
+        <v>932308</v>
       </c>
       <c r="G10" s="9">
-        <v>932308</v>
+        <v>1226484</v>
       </c>
       <c r="H10" s="9">
-        <v>1226484</v>
+        <v>1026353</v>
       </c>
       <c r="I10" s="9">
-        <v>1026353</v>
+        <v>1790169</v>
       </c>
       <c r="J10" s="9">
-        <v>1790169</v>
+        <v>1228173</v>
       </c>
       <c r="K10" s="9">
-        <v>1228173</v>
+        <v>1869621</v>
       </c>
       <c r="L10" s="9">
-        <v>1869621</v>
+        <v>2007758</v>
       </c>
       <c r="M10" s="9">
-        <v>2007758</v>
+        <v>1976180</v>
       </c>
       <c r="N10" s="9">
-        <v>1976180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1969350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>41052</v>
+        <v>65908</v>
       </c>
       <c r="F11" s="11">
-        <v>65908</v>
+        <v>50680</v>
       </c>
       <c r="G11" s="11">
-        <v>50680</v>
+        <v>65034</v>
       </c>
       <c r="H11" s="11">
-        <v>65034</v>
+        <v>66384</v>
       </c>
       <c r="I11" s="11">
-        <v>66384</v>
+        <v>79177</v>
       </c>
       <c r="J11" s="11">
-        <v>79177</v>
+        <v>78672</v>
       </c>
       <c r="K11" s="11">
-        <v>78672</v>
+        <v>138201</v>
       </c>
       <c r="L11" s="11">
-        <v>138201</v>
+        <v>129900</v>
       </c>
       <c r="M11" s="11">
-        <v>129900</v>
+        <v>145860</v>
       </c>
       <c r="N11" s="11">
-        <v>145860</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>391870</v>
+        <v>975814</v>
       </c>
       <c r="F12" s="9">
-        <v>975814</v>
+        <v>480967</v>
       </c>
       <c r="G12" s="9">
-        <v>480967</v>
+        <v>416633</v>
       </c>
       <c r="H12" s="9">
-        <v>416633</v>
+        <v>546652</v>
       </c>
       <c r="I12" s="9">
-        <v>546652</v>
+        <v>1101918</v>
       </c>
       <c r="J12" s="9">
-        <v>1101918</v>
+        <v>741541</v>
       </c>
       <c r="K12" s="9">
-        <v>741541</v>
+        <v>825747</v>
       </c>
       <c r="L12" s="9">
-        <v>825747</v>
+        <v>434908</v>
       </c>
       <c r="M12" s="9">
-        <v>434908</v>
+        <v>1010023</v>
       </c>
       <c r="N12" s="9">
-        <v>1010023</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>923250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>836552</v>
+        <v>1502518</v>
       </c>
       <c r="F13" s="13">
-        <v>1502518</v>
+        <v>1463955</v>
       </c>
       <c r="G13" s="13">
-        <v>1463955</v>
+        <v>1708151</v>
       </c>
       <c r="H13" s="13">
-        <v>1708151</v>
+        <v>1639389</v>
       </c>
       <c r="I13" s="13">
-        <v>1639389</v>
+        <v>2971264</v>
       </c>
       <c r="J13" s="13">
-        <v>2971264</v>
+        <v>2048386</v>
       </c>
       <c r="K13" s="13">
-        <v>2048386</v>
+        <v>2833569</v>
       </c>
       <c r="L13" s="13">
-        <v>2833569</v>
+        <v>2572566</v>
       </c>
       <c r="M13" s="13">
-        <v>2572566</v>
+        <v>3132063</v>
       </c>
       <c r="N13" s="13">
-        <v>3132063</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3052706</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1078,81 +1078,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>836552</v>
+        <v>1502518</v>
       </c>
       <c r="F15" s="13">
-        <v>1502518</v>
+        <v>1463955</v>
       </c>
       <c r="G15" s="13">
-        <v>1463955</v>
+        <v>1708151</v>
       </c>
       <c r="H15" s="13">
-        <v>1708151</v>
+        <v>1639389</v>
       </c>
       <c r="I15" s="13">
-        <v>1639389</v>
+        <v>2971264</v>
       </c>
       <c r="J15" s="13">
-        <v>2971264</v>
+        <v>2048386</v>
       </c>
       <c r="K15" s="13">
-        <v>2048386</v>
+        <v>2833569</v>
       </c>
       <c r="L15" s="13">
-        <v>2833569</v>
+        <v>2572566</v>
       </c>
       <c r="M15" s="13">
-        <v>2572566</v>
+        <v>3132063</v>
       </c>
       <c r="N15" s="13">
-        <v>3132063</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3052706</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>3707</v>
+        <v>-18242</v>
       </c>
       <c r="F16" s="9">
-        <v>-18242</v>
+        <v>-14790</v>
       </c>
       <c r="G16" s="9">
-        <v>-14790</v>
+        <v>28933</v>
       </c>
       <c r="H16" s="9">
-        <v>28933</v>
+        <v>-5476</v>
       </c>
       <c r="I16" s="9">
-        <v>-5476</v>
+        <v>-292537</v>
       </c>
       <c r="J16" s="9">
-        <v>-292537</v>
+        <v>306716</v>
       </c>
       <c r="K16" s="9">
-        <v>306716</v>
+        <v>-16507</v>
       </c>
       <c r="L16" s="9">
-        <v>-16507</v>
+        <v>-28374</v>
       </c>
       <c r="M16" s="9">
-        <v>-28374</v>
+        <v>25173</v>
       </c>
       <c r="N16" s="9">
-        <v>25173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-150159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1189,155 +1189,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>840259</v>
+        <v>1484276</v>
       </c>
       <c r="F18" s="15">
-        <v>1484276</v>
+        <v>1449165</v>
       </c>
       <c r="G18" s="15">
-        <v>1449165</v>
+        <v>1737084</v>
       </c>
       <c r="H18" s="15">
-        <v>1737084</v>
+        <v>1633913</v>
       </c>
       <c r="I18" s="15">
-        <v>1633913</v>
+        <v>2678727</v>
       </c>
       <c r="J18" s="15">
-        <v>2678727</v>
+        <v>2355102</v>
       </c>
       <c r="K18" s="15">
-        <v>2355102</v>
+        <v>2817062</v>
       </c>
       <c r="L18" s="15">
-        <v>2817062</v>
+        <v>2544192</v>
       </c>
       <c r="M18" s="15">
-        <v>2544192</v>
+        <v>3157236</v>
       </c>
       <c r="N18" s="15">
-        <v>3157236</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2902547</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>304898</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>183938</v>
       </c>
       <c r="G19" s="11">
-        <v>183938</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>364871</v>
       </c>
       <c r="J19" s="11">
-        <v>156451</v>
+        <v>158526</v>
       </c>
       <c r="K19" s="11">
-        <v>158526</v>
+        <v>535680</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>1236490</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>934522</v>
       </c>
       <c r="N19" s="11">
-        <v>301968</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>441337</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-89340</v>
+        <v>-183938</v>
       </c>
       <c r="F20" s="9">
-        <v>120960</v>
+        <v>-231019</v>
       </c>
       <c r="G20" s="9">
-        <v>-231019</v>
+        <v>22599</v>
       </c>
       <c r="H20" s="9">
-        <v>22599</v>
+        <v>-156451</v>
       </c>
       <c r="I20" s="9">
-        <v>-156451</v>
+        <v>-158526</v>
       </c>
       <c r="J20" s="9">
-        <v>-158526</v>
+        <v>-535680</v>
       </c>
       <c r="K20" s="9">
-        <v>-535680</v>
+        <v>-1236490</v>
       </c>
       <c r="L20" s="9">
-        <v>-700810</v>
+        <v>-934522</v>
       </c>
       <c r="M20" s="9">
-        <v>301968</v>
+        <v>-441337</v>
       </c>
       <c r="N20" s="9">
-        <v>-441337</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-743903</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>750919</v>
+        <v>1605236</v>
       </c>
       <c r="F21" s="13">
-        <v>1605236</v>
+        <v>1402084</v>
       </c>
       <c r="G21" s="13">
-        <v>1402084</v>
+        <v>1759683</v>
       </c>
       <c r="H21" s="13">
-        <v>1759683</v>
+        <v>1477462</v>
       </c>
       <c r="I21" s="13">
-        <v>1477462</v>
+        <v>2885072</v>
       </c>
       <c r="J21" s="13">
-        <v>2885072</v>
+        <v>1977948</v>
       </c>
       <c r="K21" s="13">
-        <v>1977948</v>
+        <v>2116252</v>
       </c>
       <c r="L21" s="13">
-        <v>2116252</v>
+        <v>2846160</v>
       </c>
       <c r="M21" s="13">
-        <v>2846160</v>
+        <v>3650421</v>
       </c>
       <c r="N21" s="13">
-        <v>3650421</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2599981</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1374,44 +1374,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>750919</v>
+        <v>1605236</v>
       </c>
       <c r="F23" s="13">
-        <v>1605236</v>
+        <v>1402084</v>
       </c>
       <c r="G23" s="13">
-        <v>1402084</v>
+        <v>1759683</v>
       </c>
       <c r="H23" s="13">
-        <v>1759683</v>
+        <v>1477462</v>
       </c>
       <c r="I23" s="13">
-        <v>1477462</v>
+        <v>2885072</v>
       </c>
       <c r="J23" s="13">
-        <v>2885072</v>
+        <v>1977948</v>
       </c>
       <c r="K23" s="13">
-        <v>1977948</v>
+        <v>2116252</v>
       </c>
       <c r="L23" s="13">
-        <v>2116252</v>
+        <v>2846160</v>
       </c>
       <c r="M23" s="13">
-        <v>2846160</v>
+        <v>3650421</v>
       </c>
       <c r="N23" s="13">
-        <v>3650421</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2599981</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1426,7 +1426,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1441,7 +1441,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1456,7 +1456,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1556,37 +1556,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>543</v>
+        <v>2295</v>
       </c>
       <c r="F30" s="11">
-        <v>2295</v>
+        <v>1210</v>
       </c>
       <c r="G30" s="11">
-        <v>1210</v>
+        <v>1711</v>
       </c>
       <c r="H30" s="11">
-        <v>1711</v>
+        <v>219</v>
       </c>
       <c r="I30" s="11">
-        <v>219</v>
+        <v>1091</v>
       </c>
       <c r="J30" s="11">
-        <v>1091</v>
+        <v>1606</v>
       </c>
       <c r="K30" s="11">
-        <v>1606</v>
+        <v>2362</v>
       </c>
       <c r="L30" s="11">
-        <v>2362</v>
+        <v>1127</v>
       </c>
       <c r="M30" s="11">
-        <v>1127</v>
+        <v>896</v>
       </c>
       <c r="N30" s="11">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1595,37 +1595,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>6956</v>
+        <v>8651</v>
       </c>
       <c r="F31" s="9">
-        <v>8651</v>
+        <v>5075</v>
       </c>
       <c r="G31" s="9">
-        <v>5075</v>
+        <v>4739</v>
       </c>
       <c r="H31" s="9">
-        <v>4739</v>
+        <v>2810</v>
       </c>
       <c r="I31" s="9">
-        <v>2810</v>
+        <v>7805</v>
       </c>
       <c r="J31" s="9">
-        <v>7805</v>
+        <v>1190</v>
       </c>
       <c r="K31" s="9">
-        <v>1190</v>
+        <v>5253</v>
       </c>
       <c r="L31" s="9">
-        <v>5253</v>
+        <v>2880</v>
       </c>
       <c r="M31" s="9">
-        <v>2880</v>
+        <v>1000</v>
       </c>
       <c r="N31" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1634,37 +1634,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>695917</v>
+        <v>574435</v>
       </c>
       <c r="F32" s="11">
-        <v>574435</v>
+        <v>434874</v>
       </c>
       <c r="G32" s="11">
-        <v>434874</v>
+        <v>368591</v>
       </c>
       <c r="H32" s="11">
-        <v>368591</v>
+        <v>132638</v>
       </c>
       <c r="I32" s="11">
-        <v>132638</v>
+        <v>390682</v>
       </c>
       <c r="J32" s="11">
-        <v>390682</v>
+        <v>184970</v>
       </c>
       <c r="K32" s="11">
-        <v>184970</v>
+        <v>186202</v>
       </c>
       <c r="L32" s="11">
-        <v>186202</v>
+        <v>324690</v>
       </c>
       <c r="M32" s="11">
-        <v>324690</v>
+        <v>313974</v>
       </c>
       <c r="N32" s="11">
-        <v>313974</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>308275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1681,11 +1681,11 @@
       <c r="G33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>31</v>
@@ -1703,7 +1703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1712,74 +1712,74 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>18132</v>
+        <v>15994</v>
       </c>
       <c r="F34" s="11">
-        <v>15994</v>
+        <v>1481</v>
       </c>
       <c r="G34" s="11">
-        <v>1481</v>
+        <v>1721</v>
       </c>
       <c r="H34" s="11">
-        <v>1721</v>
+        <v>7324</v>
       </c>
       <c r="I34" s="11">
-        <v>7324</v>
+        <v>1224</v>
       </c>
       <c r="J34" s="11">
-        <v>1224</v>
+        <v>1647</v>
       </c>
       <c r="K34" s="11">
-        <v>1647</v>
+        <v>750</v>
       </c>
       <c r="L34" s="11">
-        <v>750</v>
+        <v>2291</v>
       </c>
       <c r="M34" s="11">
-        <v>2291</v>
+        <v>2205</v>
       </c>
       <c r="N34" s="11">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>721548</v>
+        <v>601375</v>
       </c>
       <c r="F35" s="15">
-        <v>601375</v>
+        <v>442640</v>
       </c>
       <c r="G35" s="15">
-        <v>442640</v>
+        <v>376762</v>
       </c>
       <c r="H35" s="15">
-        <v>376762</v>
+        <v>142991</v>
       </c>
       <c r="I35" s="15">
-        <v>142991</v>
+        <v>400802</v>
       </c>
       <c r="J35" s="15">
-        <v>400802</v>
+        <v>189413</v>
       </c>
       <c r="K35" s="15">
-        <v>189413</v>
+        <v>194567</v>
       </c>
       <c r="L35" s="15">
-        <v>194567</v>
+        <v>330988</v>
       </c>
       <c r="M35" s="15">
-        <v>330988</v>
+        <v>318075</v>
       </c>
       <c r="N35" s="15">
-        <v>318075</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>311364</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1794,7 +1794,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1824,7 +1824,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1890,11 +1890,11 @@
       <c r="F41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>31</v>
@@ -1915,7 +1915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>32</v>
       </c>
@@ -1924,37 +1924,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>2408</v>
+        <v>-1448</v>
       </c>
       <c r="F42" s="11">
-        <v>-1448</v>
+        <v>2716</v>
       </c>
       <c r="G42" s="11">
-        <v>2716</v>
+        <v>455</v>
       </c>
       <c r="H42" s="11">
-        <v>455</v>
+        <v>1113</v>
       </c>
       <c r="I42" s="11">
-        <v>1113</v>
+        <v>3002</v>
       </c>
       <c r="J42" s="11">
-        <v>3002</v>
+        <v>2328</v>
       </c>
       <c r="K42" s="11">
-        <v>2328</v>
+        <v>-1595</v>
       </c>
       <c r="L42" s="11">
-        <v>-1595</v>
+        <v>1512</v>
       </c>
       <c r="M42" s="11">
-        <v>1512</v>
+        <v>129</v>
       </c>
       <c r="N42" s="11">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
@@ -1963,37 +1963,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>4450</v>
+        <v>2629</v>
       </c>
       <c r="F43" s="9">
-        <v>2629</v>
+        <v>6412</v>
       </c>
       <c r="G43" s="9">
-        <v>6412</v>
+        <v>15021</v>
       </c>
       <c r="H43" s="9">
-        <v>15021</v>
+        <v>8920</v>
       </c>
       <c r="I43" s="9">
-        <v>8920</v>
+        <v>7785</v>
       </c>
       <c r="J43" s="9">
-        <v>7785</v>
+        <v>13728</v>
       </c>
       <c r="K43" s="9">
-        <v>13728</v>
+        <v>6492</v>
       </c>
       <c r="L43" s="9">
-        <v>6492</v>
+        <v>9462</v>
       </c>
       <c r="M43" s="9">
-        <v>9462</v>
+        <v>10506</v>
       </c>
       <c r="N43" s="9">
-        <v>10506</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9820</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
@@ -2002,37 +2002,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>23554</v>
+        <v>13910</v>
       </c>
       <c r="F44" s="11">
-        <v>13910</v>
+        <v>29401</v>
       </c>
       <c r="G44" s="11">
-        <v>29401</v>
+        <v>198264</v>
       </c>
       <c r="H44" s="11">
-        <v>198264</v>
+        <v>70387</v>
       </c>
       <c r="I44" s="11">
-        <v>70387</v>
+        <v>-96657</v>
       </c>
       <c r="J44" s="11">
-        <v>-96657</v>
+        <v>110834</v>
       </c>
       <c r="K44" s="11">
-        <v>110834</v>
+        <v>134401</v>
       </c>
       <c r="L44" s="11">
-        <v>134401</v>
+        <v>68420</v>
       </c>
       <c r="M44" s="11">
-        <v>68420</v>
+        <v>19092</v>
       </c>
       <c r="N44" s="11">
-        <v>19092</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100025</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>36</v>
       </c>
@@ -2046,14 +2046,14 @@
       <c r="F45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>31</v>
+      <c r="G45" s="9">
+        <v>0</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
+      <c r="I45" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>31</v>
@@ -2071,7 +2071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>37</v>
       </c>
@@ -2080,74 +2080,74 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>11216</v>
+        <v>-3726</v>
       </c>
       <c r="F46" s="11">
-        <v>-3726</v>
+        <v>2654</v>
       </c>
       <c r="G46" s="11">
-        <v>2654</v>
+        <v>8489</v>
       </c>
       <c r="H46" s="11">
-        <v>8489</v>
+        <v>7199</v>
       </c>
       <c r="I46" s="11">
-        <v>7199</v>
+        <v>9727</v>
       </c>
       <c r="J46" s="11">
-        <v>9727</v>
+        <v>0</v>
       </c>
       <c r="K46" s="11">
-        <v>0</v>
+        <v>18141</v>
       </c>
       <c r="L46" s="11">
-        <v>18141</v>
+        <v>6769</v>
       </c>
       <c r="M46" s="11">
-        <v>6769</v>
+        <v>12955</v>
       </c>
       <c r="N46" s="11">
-        <v>12955</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9677</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>41628</v>
+        <v>11365</v>
       </c>
       <c r="F47" s="15">
-        <v>11365</v>
+        <v>41183</v>
       </c>
       <c r="G47" s="15">
-        <v>41183</v>
+        <v>222229</v>
       </c>
       <c r="H47" s="15">
-        <v>222229</v>
+        <v>87619</v>
       </c>
       <c r="I47" s="15">
-        <v>87619</v>
+        <v>-76143</v>
       </c>
       <c r="J47" s="15">
-        <v>-76143</v>
+        <v>126890</v>
       </c>
       <c r="K47" s="15">
-        <v>126890</v>
+        <v>157439</v>
       </c>
       <c r="L47" s="15">
-        <v>157439</v>
+        <v>86163</v>
       </c>
       <c r="M47" s="15">
-        <v>86163</v>
+        <v>42682</v>
       </c>
       <c r="N47" s="15">
-        <v>42682</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2162,7 +2162,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2177,7 +2177,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2192,7 +2192,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2244,7 +2244,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2258,11 +2258,11 @@
       <c r="F53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>31</v>
@@ -2283,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>32</v>
       </c>
@@ -2292,37 +2292,37 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>656</v>
+        <v>-363</v>
       </c>
       <c r="F54" s="11">
-        <v>-363</v>
+        <v>2215</v>
       </c>
       <c r="G54" s="11">
-        <v>2215</v>
+        <v>1966</v>
       </c>
       <c r="H54" s="11">
-        <v>1966</v>
+        <v>1389</v>
       </c>
       <c r="I54" s="11">
-        <v>1389</v>
+        <v>1320</v>
       </c>
       <c r="J54" s="11">
-        <v>1320</v>
+        <v>1572</v>
       </c>
       <c r="K54" s="11">
-        <v>1572</v>
+        <v>-360</v>
       </c>
       <c r="L54" s="11">
-        <v>-360</v>
+        <v>1743</v>
       </c>
       <c r="M54" s="11">
-        <v>1743</v>
+        <v>-129</v>
       </c>
       <c r="N54" s="11">
-        <v>-129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -2331,37 +2331,37 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>2755</v>
+        <v>6205</v>
       </c>
       <c r="F55" s="9">
-        <v>6205</v>
+        <v>6748</v>
       </c>
       <c r="G55" s="9">
-        <v>6748</v>
+        <v>12777</v>
       </c>
       <c r="H55" s="9">
-        <v>12777</v>
+        <v>8103</v>
       </c>
       <c r="I55" s="9">
-        <v>8103</v>
+        <v>14395</v>
       </c>
       <c r="J55" s="9">
-        <v>14395</v>
+        <v>9665</v>
       </c>
       <c r="K55" s="9">
-        <v>9665</v>
+        <v>8865</v>
       </c>
       <c r="L55" s="9">
-        <v>8865</v>
+        <v>11342</v>
       </c>
       <c r="M55" s="9">
-        <v>11342</v>
+        <v>10586</v>
       </c>
       <c r="N55" s="9">
-        <v>10586</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>35</v>
       </c>
@@ -2370,37 +2370,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>145036</v>
+        <v>153471</v>
       </c>
       <c r="F56" s="11">
-        <v>153471</v>
+        <v>95684</v>
       </c>
       <c r="G56" s="11">
-        <v>95684</v>
+        <v>140082</v>
       </c>
       <c r="H56" s="11">
-        <v>140082</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>0</v>
+        <v>215533</v>
       </c>
       <c r="J56" s="11">
-        <v>215533</v>
+        <v>109602</v>
       </c>
       <c r="K56" s="11">
-        <v>109602</v>
+        <v>-4087</v>
       </c>
       <c r="L56" s="11">
-        <v>-4087</v>
+        <v>79136</v>
       </c>
       <c r="M56" s="11">
-        <v>79136</v>
+        <v>24791</v>
       </c>
       <c r="N56" s="11">
-        <v>24791</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56137</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>36</v>
       </c>
@@ -2414,14 +2414,14 @@
       <c r="F57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>31</v>
+      <c r="G57" s="9">
+        <v>0</v>
       </c>
       <c r="H57" s="9">
         <v>0</v>
       </c>
-      <c r="I57" s="9">
-        <v>0</v>
+      <c r="I57" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>31</v>
@@ -2439,7 +2439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>37</v>
       </c>
@@ -2448,74 +2448,74 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>13364</v>
+        <v>10787</v>
       </c>
       <c r="F58" s="11">
-        <v>10787</v>
+        <v>2414</v>
       </c>
       <c r="G58" s="11">
-        <v>2414</v>
+        <v>10544</v>
       </c>
       <c r="H58" s="11">
-        <v>10544</v>
+        <v>7259</v>
       </c>
       <c r="I58" s="11">
-        <v>7259</v>
+        <v>7686</v>
       </c>
       <c r="J58" s="11">
-        <v>7686</v>
+        <v>897</v>
       </c>
       <c r="K58" s="11">
-        <v>897</v>
+        <v>16600</v>
       </c>
       <c r="L58" s="11">
-        <v>16600</v>
+        <v>6855</v>
       </c>
       <c r="M58" s="11">
-        <v>6855</v>
+        <v>14145</v>
       </c>
       <c r="N58" s="11">
-        <v>14145</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>161811</v>
+        <v>170100</v>
       </c>
       <c r="F59" s="15">
-        <v>170100</v>
+        <v>107061</v>
       </c>
       <c r="G59" s="15">
-        <v>107061</v>
+        <v>165369</v>
       </c>
       <c r="H59" s="15">
-        <v>165369</v>
+        <v>16751</v>
       </c>
       <c r="I59" s="15">
-        <v>16751</v>
+        <v>238934</v>
       </c>
       <c r="J59" s="15">
-        <v>238934</v>
+        <v>121736</v>
       </c>
       <c r="K59" s="15">
-        <v>121736</v>
+        <v>21018</v>
       </c>
       <c r="L59" s="15">
-        <v>21018</v>
+        <v>99076</v>
       </c>
       <c r="M59" s="15">
-        <v>99076</v>
+        <v>49393</v>
       </c>
       <c r="N59" s="15">
-        <v>49393</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75485</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2530,7 +2530,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2545,7 +2545,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2560,7 +2560,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2612,7 +2612,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
@@ -2626,11 +2626,11 @@
       <c r="F65" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>31</v>
@@ -2651,7 +2651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2660,37 +2660,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>2295</v>
+        <v>1210</v>
       </c>
       <c r="F66" s="11">
-        <v>1210</v>
+        <v>1711</v>
       </c>
       <c r="G66" s="11">
-        <v>1711</v>
+        <v>1367</v>
       </c>
       <c r="H66" s="11">
-        <v>1367</v>
+        <v>1091</v>
       </c>
       <c r="I66" s="11">
-        <v>1091</v>
+        <v>1606</v>
       </c>
       <c r="J66" s="11">
-        <v>1606</v>
+        <v>2362</v>
       </c>
       <c r="K66" s="11">
-        <v>2362</v>
+        <v>1127</v>
       </c>
       <c r="L66" s="11">
-        <v>1127</v>
+        <v>896</v>
       </c>
       <c r="M66" s="11">
-        <v>896</v>
+        <v>1154</v>
       </c>
       <c r="N66" s="11">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>34</v>
       </c>
@@ -2699,37 +2699,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>8651</v>
+        <v>5075</v>
       </c>
       <c r="F67" s="9">
-        <v>5075</v>
+        <v>4739</v>
       </c>
       <c r="G67" s="9">
-        <v>4739</v>
+        <v>6988</v>
       </c>
       <c r="H67" s="9">
-        <v>6988</v>
+        <v>7805</v>
       </c>
       <c r="I67" s="9">
-        <v>7805</v>
+        <v>1190</v>
       </c>
       <c r="J67" s="9">
-        <v>1190</v>
+        <v>5253</v>
       </c>
       <c r="K67" s="9">
-        <v>5253</v>
+        <v>2880</v>
       </c>
       <c r="L67" s="9">
-        <v>2880</v>
+        <v>1000</v>
       </c>
       <c r="M67" s="9">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="N67" s="9">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>35</v>
       </c>
@@ -2738,37 +2738,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>574435</v>
+        <v>434874</v>
       </c>
       <c r="F68" s="11">
-        <v>434874</v>
+        <v>368591</v>
       </c>
       <c r="G68" s="11">
-        <v>368591</v>
+        <v>320295</v>
       </c>
       <c r="H68" s="11">
-        <v>320295</v>
+        <v>390682</v>
       </c>
       <c r="I68" s="11">
-        <v>390682</v>
+        <v>184970</v>
       </c>
       <c r="J68" s="11">
-        <v>184970</v>
+        <v>186202</v>
       </c>
       <c r="K68" s="11">
-        <v>186202</v>
+        <v>324690</v>
       </c>
       <c r="L68" s="11">
-        <v>324690</v>
+        <v>313974</v>
       </c>
       <c r="M68" s="11">
-        <v>313974</v>
+        <v>308275</v>
       </c>
       <c r="N68" s="11">
-        <v>308275</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>352163</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>36</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="F69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>31</v>
+      <c r="G69" s="9">
+        <v>0</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
       </c>
-      <c r="I69" s="9">
-        <v>0</v>
+      <c r="I69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>31</v>
@@ -2807,7 +2807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>37</v>
       </c>
@@ -2816,74 +2816,74 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>15994</v>
+        <v>1481</v>
       </c>
       <c r="F70" s="11">
-        <v>1481</v>
+        <v>1721</v>
       </c>
       <c r="G70" s="11">
-        <v>1721</v>
+        <v>1284</v>
       </c>
       <c r="H70" s="11">
-        <v>1284</v>
+        <v>1224</v>
       </c>
       <c r="I70" s="11">
-        <v>1224</v>
+        <v>1647</v>
       </c>
       <c r="J70" s="11">
-        <v>1647</v>
+        <v>750</v>
       </c>
       <c r="K70" s="11">
-        <v>750</v>
+        <v>2291</v>
       </c>
       <c r="L70" s="11">
-        <v>2291</v>
+        <v>2205</v>
       </c>
       <c r="M70" s="11">
-        <v>2205</v>
+        <v>1015</v>
       </c>
       <c r="N70" s="11">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>601375</v>
+        <v>442640</v>
       </c>
       <c r="F71" s="15">
-        <v>442640</v>
+        <v>376762</v>
       </c>
       <c r="G71" s="15">
-        <v>376762</v>
+        <v>329934</v>
       </c>
       <c r="H71" s="15">
-        <v>329934</v>
+        <v>400802</v>
       </c>
       <c r="I71" s="15">
-        <v>400802</v>
+        <v>189413</v>
       </c>
       <c r="J71" s="15">
-        <v>189413</v>
+        <v>194567</v>
       </c>
       <c r="K71" s="15">
-        <v>194567</v>
+        <v>330988</v>
       </c>
       <c r="L71" s="15">
-        <v>330988</v>
+        <v>318075</v>
       </c>
       <c r="M71" s="15">
-        <v>318075</v>
+        <v>311364</v>
       </c>
       <c r="N71" s="15">
-        <v>311364</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356091</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2898,7 +2898,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2913,7 +2913,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2928,7 +2928,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2980,7 +2980,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
@@ -3028,37 +3028,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>80710</v>
+        <v>271883</v>
       </c>
       <c r="F78" s="11">
-        <v>271883</v>
+        <v>248123</v>
       </c>
       <c r="G78" s="11">
-        <v>248123</v>
+        <v>361634</v>
       </c>
       <c r="H78" s="11">
-        <v>361634</v>
+        <v>37164</v>
       </c>
       <c r="I78" s="11">
-        <v>37164</v>
+        <v>160410</v>
       </c>
       <c r="J78" s="11">
-        <v>160410</v>
+        <v>344672</v>
       </c>
       <c r="K78" s="11">
-        <v>344672</v>
+        <v>575615</v>
       </c>
       <c r="L78" s="11">
-        <v>575615</v>
+        <v>191552</v>
       </c>
       <c r="M78" s="11">
-        <v>191552</v>
+        <v>156073</v>
       </c>
       <c r="N78" s="11">
-        <v>156073</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>233272</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>34</v>
       </c>
@@ -3067,37 +3067,37 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>154011</v>
+        <v>226615</v>
       </c>
       <c r="F79" s="9">
-        <v>226615</v>
+        <v>151241</v>
       </c>
       <c r="G79" s="9">
-        <v>151241</v>
+        <v>199308</v>
       </c>
       <c r="H79" s="9">
-        <v>199308</v>
+        <v>70914</v>
       </c>
       <c r="I79" s="9">
-        <v>70914</v>
+        <v>363902</v>
       </c>
       <c r="J79" s="9">
-        <v>363902</v>
+        <v>55719</v>
       </c>
       <c r="K79" s="9">
-        <v>55719</v>
+        <v>456965</v>
       </c>
       <c r="L79" s="9">
-        <v>456965</v>
+        <v>131121</v>
       </c>
       <c r="M79" s="9">
-        <v>131121</v>
+        <v>54282</v>
       </c>
       <c r="N79" s="9">
-        <v>54282</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49722</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>35</v>
       </c>
@@ -3106,37 +3106,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>404711</v>
+        <v>333163</v>
       </c>
       <c r="F80" s="11">
-        <v>333163</v>
+        <v>253224</v>
       </c>
       <c r="G80" s="11">
-        <v>253224</v>
+        <v>217838</v>
       </c>
       <c r="H80" s="11">
-        <v>217838</v>
+        <v>87936</v>
       </c>
       <c r="I80" s="11">
-        <v>87936</v>
+        <v>454688</v>
       </c>
       <c r="J80" s="11">
-        <v>454688</v>
+        <v>257456</v>
       </c>
       <c r="K80" s="11">
-        <v>257456</v>
+        <v>278119</v>
       </c>
       <c r="L80" s="11">
-        <v>278119</v>
+        <v>784530</v>
       </c>
       <c r="M80" s="11">
-        <v>784530</v>
+        <v>1154695</v>
       </c>
       <c r="N80" s="11">
-        <v>1154695</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1010252</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -3153,11 +3153,11 @@
       <c r="G81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>31</v>
@@ -3175,7 +3175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>37</v>
       </c>
@@ -3184,74 +3184,74 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>293728</v>
+        <v>270772</v>
       </c>
       <c r="F82" s="11">
-        <v>270772</v>
+        <v>66840</v>
       </c>
       <c r="G82" s="11">
-        <v>66840</v>
+        <v>88259</v>
       </c>
       <c r="H82" s="11">
-        <v>88259</v>
+        <v>135246</v>
       </c>
       <c r="I82" s="11">
-        <v>135246</v>
+        <v>88157</v>
       </c>
       <c r="J82" s="11">
-        <v>88157</v>
+        <v>158815</v>
       </c>
       <c r="K82" s="11">
-        <v>158815</v>
+        <v>70735</v>
       </c>
       <c r="L82" s="11">
-        <v>70735</v>
+        <v>332671</v>
       </c>
       <c r="M82" s="11">
-        <v>332671</v>
+        <v>206791</v>
       </c>
       <c r="N82" s="11">
-        <v>206791</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217443</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>933160</v>
+        <v>1102433</v>
       </c>
       <c r="F83" s="15">
-        <v>1102433</v>
+        <v>719428</v>
       </c>
       <c r="G83" s="15">
-        <v>719428</v>
+        <v>867039</v>
       </c>
       <c r="H83" s="15">
-        <v>867039</v>
+        <v>331260</v>
       </c>
       <c r="I83" s="15">
-        <v>331260</v>
+        <v>1067157</v>
       </c>
       <c r="J83" s="15">
-        <v>1067157</v>
+        <v>816662</v>
       </c>
       <c r="K83" s="15">
-        <v>816662</v>
+        <v>1381434</v>
       </c>
       <c r="L83" s="15">
-        <v>1381434</v>
+        <v>1439874</v>
       </c>
       <c r="M83" s="15">
-        <v>1439874</v>
+        <v>1571841</v>
       </c>
       <c r="N83" s="15">
-        <v>1571841</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1510689</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3266,7 +3266,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3348,7 +3348,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3362,11 +3362,11 @@
       <c r="F89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>31</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3396,37 +3396,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>265597</v>
+        <v>-54073</v>
       </c>
       <c r="F90" s="11">
-        <v>-54073</v>
+        <v>581669</v>
       </c>
       <c r="G90" s="11">
-        <v>581669</v>
+        <v>67448</v>
       </c>
       <c r="H90" s="11">
-        <v>67448</v>
+        <v>303718</v>
       </c>
       <c r="I90" s="11">
-        <v>303718</v>
+        <v>607439</v>
       </c>
       <c r="J90" s="11">
-        <v>607439</v>
+        <v>594571</v>
       </c>
       <c r="K90" s="11">
-        <v>594571</v>
+        <v>-367616</v>
       </c>
       <c r="L90" s="11">
-        <v>-367616</v>
+        <v>499045</v>
       </c>
       <c r="M90" s="11">
-        <v>499045</v>
+        <v>39214</v>
       </c>
       <c r="N90" s="11">
-        <v>39214</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146525</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -3435,37 +3435,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>133535</v>
+        <v>77999</v>
       </c>
       <c r="F91" s="9">
-        <v>77999</v>
+        <v>331868</v>
       </c>
       <c r="G91" s="9">
-        <v>331868</v>
+        <v>659450</v>
       </c>
       <c r="H91" s="9">
-        <v>659450</v>
+        <v>427838</v>
       </c>
       <c r="I91" s="9">
-        <v>427838</v>
+        <v>331381</v>
       </c>
       <c r="J91" s="9">
-        <v>331381</v>
+        <v>1012464</v>
       </c>
       <c r="K91" s="9">
-        <v>1012464</v>
+        <v>4848</v>
       </c>
       <c r="L91" s="9">
-        <v>4848</v>
+        <v>489769</v>
       </c>
       <c r="M91" s="9">
-        <v>489769</v>
+        <v>571369</v>
       </c>
       <c r="N91" s="9">
-        <v>571369</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>542724</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -3474,37 +3474,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>13561</v>
+        <v>8237</v>
       </c>
       <c r="F92" s="11">
-        <v>8237</v>
+        <v>21163</v>
       </c>
       <c r="G92" s="11">
-        <v>21163</v>
+        <v>411589</v>
       </c>
       <c r="H92" s="11">
-        <v>411589</v>
+        <v>25873</v>
       </c>
       <c r="I92" s="11">
-        <v>25873</v>
+        <v>99531</v>
       </c>
       <c r="J92" s="11">
-        <v>99531</v>
+        <v>185910</v>
       </c>
       <c r="K92" s="11">
-        <v>185910</v>
+        <v>596114</v>
       </c>
       <c r="L92" s="11">
-        <v>596114</v>
+        <v>556486</v>
       </c>
       <c r="M92" s="11">
-        <v>556486</v>
+        <v>7662</v>
       </c>
       <c r="N92" s="11">
-        <v>7662</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>358261</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>36</v>
       </c>
@@ -3518,14 +3518,14 @@
       <c r="F93" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>31</v>
+      <c r="G93" s="9">
+        <v>0</v>
       </c>
       <c r="H93" s="9">
         <v>0</v>
       </c>
-      <c r="I93" s="9">
-        <v>0</v>
+      <c r="I93" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>31</v>
@@ -3543,7 +3543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>37</v>
       </c>
@@ -3552,74 +3552,74 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>160210</v>
+        <v>45628</v>
       </c>
       <c r="F94" s="11">
-        <v>45628</v>
+        <v>145219</v>
       </c>
       <c r="G94" s="11">
-        <v>145219</v>
+        <v>281035</v>
       </c>
       <c r="H94" s="11">
-        <v>281035</v>
+        <v>276003</v>
       </c>
       <c r="I94" s="11">
-        <v>276003</v>
+        <v>501324</v>
       </c>
       <c r="J94" s="11">
-        <v>501324</v>
+        <v>0</v>
       </c>
       <c r="K94" s="11">
-        <v>0</v>
+        <v>1694715</v>
       </c>
       <c r="L94" s="11">
-        <v>1694715</v>
+        <v>594425</v>
       </c>
       <c r="M94" s="11">
-        <v>594425</v>
+        <v>1296783</v>
       </c>
       <c r="N94" s="11">
-        <v>1296783</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1045126</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>572903</v>
+        <v>77791</v>
       </c>
       <c r="F95" s="15">
-        <v>77791</v>
+        <v>1079919</v>
       </c>
       <c r="G95" s="15">
-        <v>1079919</v>
+        <v>1419522</v>
       </c>
       <c r="H95" s="15">
-        <v>1419522</v>
+        <v>1033432</v>
       </c>
       <c r="I95" s="15">
-        <v>1033432</v>
+        <v>1539675</v>
       </c>
       <c r="J95" s="15">
-        <v>1539675</v>
+        <v>1792945</v>
       </c>
       <c r="K95" s="15">
-        <v>1792945</v>
+        <v>1928061</v>
       </c>
       <c r="L95" s="15">
-        <v>1928061</v>
+        <v>2139725</v>
       </c>
       <c r="M95" s="15">
-        <v>2139725</v>
+        <v>1915028</v>
       </c>
       <c r="N95" s="15">
-        <v>1915028</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2092636</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3634,7 +3634,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3649,7 +3649,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3664,7 +3664,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>44</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3716,7 +3716,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -3730,11 +3730,11 @@
       <c r="F101" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0</v>
+      <c r="G101" s="9">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>31</v>
@@ -3755,7 +3755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>32</v>
       </c>
@@ -3764,37 +3764,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>74424</v>
+        <v>-30313</v>
       </c>
       <c r="F102" s="11">
-        <v>-30313</v>
+        <v>468158</v>
       </c>
       <c r="G102" s="11">
-        <v>468158</v>
+        <v>221284</v>
       </c>
       <c r="H102" s="11">
-        <v>221284</v>
+        <v>351106</v>
       </c>
       <c r="I102" s="11">
-        <v>351106</v>
+        <v>423177</v>
       </c>
       <c r="J102" s="11">
-        <v>423177</v>
+        <v>363628</v>
       </c>
       <c r="K102" s="11">
-        <v>363628</v>
+        <v>16447</v>
       </c>
       <c r="L102" s="11">
-        <v>16447</v>
+        <v>534524</v>
       </c>
       <c r="M102" s="11">
-        <v>534524</v>
+        <v>-37985</v>
       </c>
       <c r="N102" s="11">
-        <v>-37985</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>153181</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>34</v>
       </c>
@@ -3803,37 +3803,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>60931</v>
+        <v>153373</v>
       </c>
       <c r="F103" s="9">
-        <v>153373</v>
+        <v>283801</v>
       </c>
       <c r="G103" s="9">
-        <v>283801</v>
+        <v>512662</v>
       </c>
       <c r="H103" s="9">
-        <v>512662</v>
+        <v>410033</v>
       </c>
       <c r="I103" s="9">
-        <v>410033</v>
+        <v>639563</v>
       </c>
       <c r="J103" s="9">
-        <v>639563</v>
+        <v>611218</v>
       </c>
       <c r="K103" s="9">
-        <v>611218</v>
+        <v>330692</v>
       </c>
       <c r="L103" s="9">
-        <v>330692</v>
+        <v>566608</v>
       </c>
       <c r="M103" s="9">
-        <v>566608</v>
+        <v>575929</v>
       </c>
       <c r="N103" s="9">
-        <v>575929</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>485454</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>35</v>
       </c>
@@ -3842,37 +3842,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>85109</v>
+        <v>88176</v>
       </c>
       <c r="F104" s="11">
-        <v>88176</v>
+        <v>56549</v>
       </c>
       <c r="G104" s="11">
-        <v>56549</v>
+        <v>200611</v>
       </c>
       <c r="H104" s="11">
-        <v>200611</v>
+        <v>1</v>
       </c>
       <c r="I104" s="11">
-        <v>1</v>
+        <v>296763</v>
       </c>
       <c r="J104" s="11">
-        <v>296763</v>
+        <v>165247</v>
       </c>
       <c r="K104" s="11">
-        <v>165247</v>
+        <v>89703</v>
       </c>
       <c r="L104" s="11">
-        <v>89703</v>
+        <v>186321</v>
       </c>
       <c r="M104" s="11">
-        <v>186321</v>
+        <v>152105</v>
       </c>
       <c r="N104" s="11">
-        <v>152105</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>199359</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>36</v>
       </c>
@@ -3886,14 +3886,14 @@
       <c r="F105" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>31</v>
+      <c r="G105" s="9">
+        <v>0</v>
       </c>
       <c r="H105" s="9">
         <v>0</v>
       </c>
-      <c r="I105" s="9">
-        <v>0</v>
+      <c r="I105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>31</v>
@@ -3911,7 +3911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>37</v>
       </c>
@@ -3920,74 +3920,74 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>183166</v>
+        <v>249560</v>
       </c>
       <c r="F106" s="11">
-        <v>249560</v>
+        <v>123800</v>
       </c>
       <c r="G106" s="11">
-        <v>123800</v>
+        <v>291927</v>
       </c>
       <c r="H106" s="11">
-        <v>291927</v>
+        <v>265213</v>
       </c>
       <c r="I106" s="11">
-        <v>265213</v>
+        <v>430666</v>
       </c>
       <c r="J106" s="11">
-        <v>430666</v>
+        <v>88080</v>
       </c>
       <c r="K106" s="11">
-        <v>88080</v>
+        <v>1432779</v>
       </c>
       <c r="L106" s="11">
-        <v>1432779</v>
+        <v>720305</v>
       </c>
       <c r="M106" s="11">
-        <v>720305</v>
+        <v>1286131</v>
       </c>
       <c r="N106" s="11">
-        <v>1286131</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1131356</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>403630</v>
+        <v>460796</v>
       </c>
       <c r="F107" s="15">
-        <v>460796</v>
+        <v>932308</v>
       </c>
       <c r="G107" s="15">
-        <v>932308</v>
+        <v>1226484</v>
       </c>
       <c r="H107" s="15">
-        <v>1226484</v>
+        <v>1026353</v>
       </c>
       <c r="I107" s="15">
-        <v>1026353</v>
+        <v>1790169</v>
       </c>
       <c r="J107" s="15">
-        <v>1790169</v>
+        <v>1228173</v>
       </c>
       <c r="K107" s="15">
-        <v>1228173</v>
+        <v>1869621</v>
       </c>
       <c r="L107" s="15">
-        <v>1869621</v>
+        <v>2007758</v>
       </c>
       <c r="M107" s="15">
-        <v>2007758</v>
+        <v>1976180</v>
       </c>
       <c r="N107" s="15">
-        <v>1976180</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1969350</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4002,7 +4002,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4017,7 +4017,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4032,7 +4032,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>45</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4084,7 +4084,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4098,11 +4098,11 @@
       <c r="F113" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
+      <c r="G113" s="9">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>31</v>
@@ -4123,7 +4123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -4132,37 +4132,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>271883</v>
+        <v>248123</v>
       </c>
       <c r="F114" s="11">
-        <v>248123</v>
+        <v>361634</v>
       </c>
       <c r="G114" s="11">
-        <v>361634</v>
+        <v>207798</v>
       </c>
       <c r="H114" s="11">
-        <v>207798</v>
+        <v>160410</v>
       </c>
       <c r="I114" s="11">
-        <v>160410</v>
+        <v>344672</v>
       </c>
       <c r="J114" s="11">
-        <v>344672</v>
+        <v>575615</v>
       </c>
       <c r="K114" s="11">
-        <v>575615</v>
+        <v>191552</v>
       </c>
       <c r="L114" s="11">
-        <v>191552</v>
+        <v>156073</v>
       </c>
       <c r="M114" s="11">
-        <v>156073</v>
+        <v>233272</v>
       </c>
       <c r="N114" s="11">
-        <v>233272</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226616</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>34</v>
       </c>
@@ -4171,37 +4171,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>226615</v>
+        <v>151241</v>
       </c>
       <c r="F115" s="9">
-        <v>151241</v>
+        <v>199308</v>
       </c>
       <c r="G115" s="9">
-        <v>199308</v>
+        <v>346097</v>
       </c>
       <c r="H115" s="9">
-        <v>346097</v>
+        <v>363902</v>
       </c>
       <c r="I115" s="9">
-        <v>363902</v>
+        <v>55719</v>
       </c>
       <c r="J115" s="9">
-        <v>55719</v>
+        <v>456965</v>
       </c>
       <c r="K115" s="9">
-        <v>456965</v>
+        <v>131121</v>
       </c>
       <c r="L115" s="9">
-        <v>131121</v>
+        <v>54282</v>
       </c>
       <c r="M115" s="9">
-        <v>54282</v>
+        <v>49722</v>
       </c>
       <c r="N115" s="9">
-        <v>49722</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106992</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>35</v>
       </c>
@@ -4210,37 +4210,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>333163</v>
+        <v>253224</v>
       </c>
       <c r="F116" s="11">
-        <v>253224</v>
+        <v>217838</v>
       </c>
       <c r="G116" s="11">
-        <v>217838</v>
+        <v>428816</v>
       </c>
       <c r="H116" s="11">
-        <v>428816</v>
+        <v>454688</v>
       </c>
       <c r="I116" s="11">
-        <v>454688</v>
+        <v>257456</v>
       </c>
       <c r="J116" s="11">
-        <v>257456</v>
+        <v>278119</v>
       </c>
       <c r="K116" s="11">
-        <v>278119</v>
+        <v>784530</v>
       </c>
       <c r="L116" s="11">
-        <v>784530</v>
+        <v>1154695</v>
       </c>
       <c r="M116" s="11">
-        <v>1154695</v>
+        <v>1010252</v>
       </c>
       <c r="N116" s="11">
-        <v>1010252</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1169154</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>36</v>
       </c>
@@ -4254,14 +4254,14 @@
       <c r="F117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>31</v>
+      <c r="G117" s="9">
+        <v>0</v>
       </c>
       <c r="H117" s="9">
         <v>0</v>
       </c>
-      <c r="I117" s="9">
-        <v>0</v>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>31</v>
@@ -4279,7 +4279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>37</v>
       </c>
@@ -4288,74 +4288,74 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>270772</v>
+        <v>66840</v>
       </c>
       <c r="F118" s="11">
-        <v>66840</v>
+        <v>88259</v>
       </c>
       <c r="G118" s="11">
-        <v>88259</v>
+        <v>77367</v>
       </c>
       <c r="H118" s="11">
-        <v>77367</v>
+        <v>88157</v>
       </c>
       <c r="I118" s="11">
-        <v>88157</v>
+        <v>158815</v>
       </c>
       <c r="J118" s="11">
-        <v>158815</v>
+        <v>70735</v>
       </c>
       <c r="K118" s="11">
-        <v>70735</v>
+        <v>332671</v>
       </c>
       <c r="L118" s="11">
-        <v>332671</v>
+        <v>206791</v>
       </c>
       <c r="M118" s="11">
-        <v>206791</v>
+        <v>217443</v>
       </c>
       <c r="N118" s="11">
-        <v>217443</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131213</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>1102433</v>
+        <v>719428</v>
       </c>
       <c r="F119" s="15">
-        <v>719428</v>
+        <v>867039</v>
       </c>
       <c r="G119" s="15">
-        <v>867039</v>
+        <v>1060078</v>
       </c>
       <c r="H119" s="15">
-        <v>1060078</v>
+        <v>1067157</v>
       </c>
       <c r="I119" s="15">
-        <v>1067157</v>
+        <v>816662</v>
       </c>
       <c r="J119" s="15">
-        <v>816662</v>
+        <v>1381434</v>
       </c>
       <c r="K119" s="15">
-        <v>1381434</v>
+        <v>1439874</v>
       </c>
       <c r="L119" s="15">
-        <v>1439874</v>
+        <v>1571841</v>
       </c>
       <c r="M119" s="15">
-        <v>1571841</v>
+        <v>1510689</v>
       </c>
       <c r="N119" s="15">
-        <v>1510689</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1633975</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4370,7 +4370,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4385,7 +4385,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4400,7 +4400,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>46</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4452,7 +4452,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>32</v>
       </c>
@@ -4461,37 +4461,37 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>148637201</v>
+        <v>118467538</v>
       </c>
       <c r="F125" s="9">
-        <v>118467538</v>
+        <v>205060331</v>
       </c>
       <c r="G125" s="9">
-        <v>205060331</v>
+        <v>211358270</v>
       </c>
       <c r="H125" s="9">
-        <v>211358270</v>
+        <v>152010241</v>
       </c>
       <c r="I125" s="9">
-        <v>152010241</v>
+        <v>147030247</v>
       </c>
       <c r="J125" s="9">
-        <v>147030247</v>
+        <v>214615193</v>
       </c>
       <c r="K125" s="9">
-        <v>214615193</v>
+        <v>243698137</v>
       </c>
       <c r="L125" s="9">
-        <v>243698137</v>
+        <v>169966282</v>
       </c>
       <c r="M125" s="9">
-        <v>169966282</v>
+        <v>174188616</v>
       </c>
       <c r="N125" s="9">
-        <v>174188616</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>202142114</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>34</v>
       </c>
@@ -4500,37 +4500,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>22140742</v>
+        <v>26195238</v>
       </c>
       <c r="F126" s="11">
-        <v>26195238</v>
+        <v>29801182</v>
       </c>
       <c r="G126" s="11">
-        <v>29801182</v>
+        <v>42056974</v>
       </c>
       <c r="H126" s="11">
-        <v>42056974</v>
+        <v>49527333</v>
       </c>
       <c r="I126" s="11">
-        <v>49527333</v>
+        <v>46624215</v>
       </c>
       <c r="J126" s="11">
-        <v>46624215</v>
+        <v>46822689</v>
       </c>
       <c r="K126" s="11">
-        <v>46822689</v>
+        <v>86991243</v>
       </c>
       <c r="L126" s="11">
-        <v>86991243</v>
+        <v>45528125</v>
       </c>
       <c r="M126" s="11">
-        <v>45528125</v>
+        <v>54282000</v>
       </c>
       <c r="N126" s="11">
-        <v>54282000</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54045652</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>35</v>
       </c>
@@ -4539,37 +4539,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>581551</v>
+        <v>579984</v>
       </c>
       <c r="F127" s="9">
-        <v>579984</v>
+        <v>582293</v>
       </c>
       <c r="G127" s="9">
-        <v>582293</v>
+        <v>591002</v>
       </c>
       <c r="H127" s="9">
-        <v>591002</v>
+        <v>1338816</v>
       </c>
       <c r="I127" s="9">
-        <v>1338816</v>
+        <v>1163831</v>
       </c>
       <c r="J127" s="9">
-        <v>1163831</v>
+        <v>1391880</v>
       </c>
       <c r="K127" s="9">
-        <v>1391880</v>
+        <v>1493641</v>
       </c>
       <c r="L127" s="9">
-        <v>1493641</v>
+        <v>2416243</v>
       </c>
       <c r="M127" s="9">
-        <v>2416243</v>
+        <v>3677677</v>
       </c>
       <c r="N127" s="9">
-        <v>3677677</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3277113</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>37</v>
       </c>
@@ -4578,37 +4578,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>16199426</v>
+        <v>16929599</v>
       </c>
       <c r="F128" s="11">
-        <v>16929599</v>
+        <v>45131668</v>
       </c>
       <c r="G128" s="11">
-        <v>45131668</v>
+        <v>51283556</v>
       </c>
       <c r="H128" s="11">
-        <v>51283556</v>
+        <v>60254673</v>
       </c>
       <c r="I128" s="11">
-        <v>60254673</v>
+        <v>72023693</v>
       </c>
       <c r="J128" s="11">
-        <v>72023693</v>
+        <v>96426837</v>
       </c>
       <c r="K128" s="11">
-        <v>96426837</v>
+        <v>94313333</v>
       </c>
       <c r="L128" s="11">
-        <v>94313333</v>
+        <v>145207770</v>
       </c>
       <c r="M128" s="11">
-        <v>145207770</v>
+        <v>93782766</v>
       </c>
       <c r="N128" s="11">
-        <v>93782766</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>214229557</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4623,7 +4623,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4638,7 +4638,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4653,7 +4653,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>48</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4705,7 +4705,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>32</v>
       </c>
@@ -4714,37 +4714,37 @@
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9">
-        <v>110297757</v>
+        <v>37343232</v>
       </c>
       <c r="F134" s="9">
-        <v>37343232</v>
+        <v>214163844</v>
       </c>
       <c r="G134" s="9">
-        <v>214163844</v>
+        <v>148237363</v>
       </c>
       <c r="H134" s="9">
-        <v>148237363</v>
+        <v>272882300</v>
       </c>
       <c r="I134" s="9">
-        <v>272882300</v>
+        <v>202344770</v>
       </c>
       <c r="J134" s="9">
-        <v>202344770</v>
+        <v>255399914</v>
       </c>
       <c r="K134" s="9">
-        <v>255399914</v>
+        <v>230480251</v>
       </c>
       <c r="L134" s="9">
-        <v>230480251</v>
+        <v>330056217</v>
       </c>
       <c r="M134" s="9">
-        <v>330056217</v>
+        <v>303984496</v>
       </c>
       <c r="N134" s="9">
-        <v>303984496</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>212355072</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>34</v>
       </c>
@@ -4753,37 +4753,37 @@
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
-        <v>30007865</v>
+        <v>29668695</v>
       </c>
       <c r="F135" s="11">
-        <v>29668695</v>
+        <v>51757330</v>
       </c>
       <c r="G135" s="11">
-        <v>51757330</v>
+        <v>43901871</v>
       </c>
       <c r="H135" s="11">
-        <v>43901871</v>
+        <v>47963901</v>
       </c>
       <c r="I135" s="11">
-        <v>47963901</v>
+        <v>42566602</v>
       </c>
       <c r="J135" s="11">
-        <v>42566602</v>
+        <v>73751748</v>
       </c>
       <c r="K135" s="11">
-        <v>73751748</v>
+        <v>746765</v>
       </c>
       <c r="L135" s="11">
-        <v>746765</v>
+        <v>51761678</v>
       </c>
       <c r="M135" s="11">
-        <v>51761678</v>
+        <v>54385018</v>
       </c>
       <c r="N135" s="11">
-        <v>54385018</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55267210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>35</v>
       </c>
@@ -4792,37 +4792,37 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
-        <v>575741</v>
+        <v>592164</v>
       </c>
       <c r="F136" s="9">
-        <v>592164</v>
+        <v>719805</v>
       </c>
       <c r="G136" s="9">
-        <v>719805</v>
+        <v>2075964</v>
       </c>
       <c r="H136" s="9">
-        <v>2075964</v>
+        <v>367582</v>
       </c>
       <c r="I136" s="9">
-        <v>367582</v>
+        <v>-1029734</v>
       </c>
       <c r="J136" s="9">
-        <v>-1029734</v>
+        <v>1677373</v>
       </c>
       <c r="K136" s="9">
-        <v>1677373</v>
+        <v>4435339</v>
       </c>
       <c r="L136" s="9">
-        <v>4435339</v>
+        <v>8133382</v>
       </c>
       <c r="M136" s="9">
-        <v>8133382</v>
+        <v>401320</v>
       </c>
       <c r="N136" s="9">
-        <v>401320</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3581715</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>37</v>
       </c>
@@ -4831,37 +4831,37 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>14284058</v>
+        <v>-12245840</v>
       </c>
       <c r="F137" s="11">
-        <v>-12245840</v>
+        <v>54717031</v>
       </c>
       <c r="G137" s="11">
-        <v>54717031</v>
+        <v>33105784</v>
       </c>
       <c r="H137" s="11">
-        <v>33105784</v>
+        <v>38339075</v>
       </c>
       <c r="I137" s="11">
-        <v>38339075</v>
-      </c>
-      <c r="J137" s="11">
         <v>51539426</v>
       </c>
-      <c r="K137" s="11" t="s">
-        <v>31</v>
+      <c r="J137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="11">
+        <v>93419051</v>
       </c>
       <c r="L137" s="11">
-        <v>93419051</v>
+        <v>87815778</v>
       </c>
       <c r="M137" s="11">
-        <v>87815778</v>
+        <v>100099035</v>
       </c>
       <c r="N137" s="11">
-        <v>100099035</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108001033</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4876,7 +4876,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4891,7 +4891,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4906,7 +4906,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>49</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4958,7 +4958,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -4967,37 +4967,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>113451220</v>
+        <v>83506887</v>
       </c>
       <c r="F143" s="9">
-        <v>83506887</v>
+        <v>211358014</v>
       </c>
       <c r="G143" s="9">
-        <v>211358014</v>
+        <v>112555443</v>
       </c>
       <c r="H143" s="9">
-        <v>112555443</v>
+        <v>252776098</v>
       </c>
       <c r="I143" s="9">
-        <v>252776098</v>
+        <v>320588636</v>
       </c>
       <c r="J143" s="9">
-        <v>320588636</v>
+        <v>231315522</v>
       </c>
       <c r="K143" s="9">
-        <v>231315522</v>
+        <v>45686111</v>
       </c>
       <c r="L143" s="9">
-        <v>-45686111</v>
+        <v>306668962</v>
       </c>
       <c r="M143" s="9">
-        <v>306668962</v>
+        <v>294457364</v>
       </c>
       <c r="N143" s="9">
-        <v>294457364</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>210124829</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -5006,37 +5006,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>22116515</v>
+        <v>24717647</v>
       </c>
       <c r="F144" s="11">
-        <v>24717647</v>
+        <v>42057054</v>
       </c>
       <c r="G144" s="11">
-        <v>42057054</v>
+        <v>40123816</v>
       </c>
       <c r="H144" s="11">
-        <v>40123816</v>
+        <v>50602616</v>
       </c>
       <c r="I144" s="11">
-        <v>50602616</v>
+        <v>44429524</v>
       </c>
       <c r="J144" s="11">
-        <v>44429524</v>
+        <v>63240352</v>
       </c>
       <c r="K144" s="11">
-        <v>63240352</v>
+        <v>37303102</v>
       </c>
       <c r="L144" s="11">
-        <v>37303102</v>
+        <v>49956621</v>
       </c>
       <c r="M144" s="11">
-        <v>49956621</v>
+        <v>54404780</v>
       </c>
       <c r="N144" s="11">
-        <v>54404780</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55869951</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>35</v>
       </c>
@@ -5045,37 +5045,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>586813</v>
+        <v>574545</v>
       </c>
       <c r="F145" s="9">
-        <v>574545</v>
+        <v>590997</v>
       </c>
       <c r="G145" s="9">
-        <v>590997</v>
-      </c>
-      <c r="H145" s="9">
         <v>1432097</v>
       </c>
-      <c r="I145" s="9" t="s">
-        <v>31</v>
+      <c r="H145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1376880</v>
       </c>
       <c r="J145" s="9">
-        <v>1376880</v>
+        <v>1507701</v>
       </c>
       <c r="K145" s="9">
-        <v>1507701</v>
+        <v>21948373</v>
       </c>
       <c r="L145" s="9">
-        <v>-21948373</v>
+        <v>2354440</v>
       </c>
       <c r="M145" s="9">
-        <v>2354440</v>
+        <v>6135493</v>
       </c>
       <c r="N145" s="9">
-        <v>6135493</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3551294</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>37</v>
       </c>
@@ -5084,37 +5084,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>13705926</v>
+        <v>23135255</v>
       </c>
       <c r="F146" s="11">
-        <v>23135255</v>
+        <v>51284176</v>
       </c>
       <c r="G146" s="11">
-        <v>51284176</v>
+        <v>27686552</v>
       </c>
       <c r="H146" s="11">
-        <v>27686552</v>
+        <v>36535749</v>
       </c>
       <c r="I146" s="11">
-        <v>36535749</v>
+        <v>56032527</v>
       </c>
       <c r="J146" s="11">
-        <v>56032527</v>
+        <v>98193980</v>
       </c>
       <c r="K146" s="11">
-        <v>98193980</v>
+        <v>86311988</v>
       </c>
       <c r="L146" s="11">
-        <v>86311988</v>
+        <v>105077316</v>
       </c>
       <c r="M146" s="11">
-        <v>105077316</v>
+        <v>90924779</v>
       </c>
       <c r="N146" s="11">
-        <v>90924779</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>113933132</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5129,7 +5129,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5144,7 +5144,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5159,7 +5159,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>50</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5211,7 +5211,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>32</v>
       </c>
@@ -5225,32 +5225,32 @@
       <c r="F152" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G152" s="9" t="s">
-        <v>31</v>
+      <c r="G152" s="9">
+        <v>152010241</v>
       </c>
       <c r="H152" s="9">
-        <v>152010241</v>
+        <v>147030247</v>
       </c>
       <c r="I152" s="9">
-        <v>147030247</v>
+        <v>214615193</v>
       </c>
       <c r="J152" s="9">
-        <v>214615193</v>
+        <v>243698137</v>
       </c>
       <c r="K152" s="9">
-        <v>243698137</v>
+        <v>169966282</v>
       </c>
       <c r="L152" s="9">
-        <v>169966282</v>
+        <v>174188616</v>
       </c>
       <c r="M152" s="9">
-        <v>174188616</v>
+        <v>202142114</v>
       </c>
       <c r="N152" s="9">
-        <v>202142114</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>203243049</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>34</v>
       </c>
@@ -5264,32 +5264,32 @@
       <c r="F153" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G153" s="11" t="s">
-        <v>31</v>
+      <c r="G153" s="11">
+        <v>49527333</v>
       </c>
       <c r="H153" s="11">
-        <v>49527333</v>
+        <v>46624215</v>
       </c>
       <c r="I153" s="11">
-        <v>46624215</v>
+        <v>46822689</v>
       </c>
       <c r="J153" s="11">
-        <v>46822689</v>
+        <v>86991243</v>
       </c>
       <c r="K153" s="11">
-        <v>86991243</v>
+        <v>45528125</v>
       </c>
       <c r="L153" s="11">
-        <v>45528125</v>
+        <v>54282000</v>
       </c>
       <c r="M153" s="11">
-        <v>54282000</v>
+        <v>54045652</v>
       </c>
       <c r="N153" s="11">
-        <v>54045652</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>52165773</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>35</v>
       </c>
@@ -5303,32 +5303,32 @@
       <c r="F154" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G154" s="9" t="s">
-        <v>31</v>
+      <c r="G154" s="9">
+        <v>1338816</v>
       </c>
       <c r="H154" s="9">
-        <v>1338816</v>
+        <v>1163831</v>
       </c>
       <c r="I154" s="9">
-        <v>1163831</v>
+        <v>1391880</v>
       </c>
       <c r="J154" s="9">
-        <v>1391880</v>
+        <v>1493641</v>
       </c>
       <c r="K154" s="9">
-        <v>1493641</v>
+        <v>2416243</v>
       </c>
       <c r="L154" s="9">
-        <v>2416243</v>
+        <v>3677677</v>
       </c>
       <c r="M154" s="9">
-        <v>3677677</v>
+        <v>3277113</v>
       </c>
       <c r="N154" s="9">
-        <v>3277113</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3319923</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>37</v>
       </c>
@@ -5342,32 +5342,32 @@
       <c r="F155" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G155" s="11" t="s">
-        <v>31</v>
+      <c r="G155" s="11">
+        <v>60254673</v>
       </c>
       <c r="H155" s="11">
-        <v>60254673</v>
+        <v>72023693</v>
       </c>
       <c r="I155" s="11">
-        <v>72023693</v>
+        <v>96426837</v>
       </c>
       <c r="J155" s="11">
-        <v>96426837</v>
+        <v>94313333</v>
       </c>
       <c r="K155" s="11">
-        <v>94313333</v>
+        <v>145207770</v>
       </c>
       <c r="L155" s="11">
-        <v>145207770</v>
+        <v>93782766</v>
       </c>
       <c r="M155" s="11">
-        <v>93782766</v>
+        <v>214229557</v>
       </c>
       <c r="N155" s="11">
-        <v>214229557</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172195538</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5382,7 +5382,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5397,7 +5397,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5412,7 +5412,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>51</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5464,44 +5464,44 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>3957</v>
+        <v>13255</v>
       </c>
       <c r="F161" s="9">
-        <v>13255</v>
+        <v>6189</v>
       </c>
       <c r="G161" s="9">
-        <v>6189</v>
+        <v>3664</v>
       </c>
       <c r="H161" s="9">
-        <v>3664</v>
+        <v>-7259</v>
       </c>
       <c r="I161" s="9">
-        <v>-7259</v>
+        <v>7874</v>
       </c>
       <c r="J161" s="9">
-        <v>7874</v>
+        <v>823</v>
       </c>
       <c r="K161" s="9">
-        <v>823</v>
+        <v>-823</v>
       </c>
       <c r="L161" s="9">
-        <v>-823</v>
+        <v>5044</v>
       </c>
       <c r="M161" s="9">
-        <v>5044</v>
+        <v>2849</v>
       </c>
       <c r="N161" s="9">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>53</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>54</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>55</v>
       </c>
@@ -5612,155 +5612,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
-        <v>962</v>
+        <v>49658</v>
       </c>
       <c r="F165" s="9">
-        <v>49658</v>
+        <v>14055</v>
       </c>
       <c r="G165" s="9">
-        <v>14055</v>
+        <v>78648</v>
       </c>
       <c r="H165" s="9">
-        <v>78648</v>
+        <v>38577</v>
       </c>
       <c r="I165" s="9">
-        <v>38577</v>
+        <v>72132</v>
       </c>
       <c r="J165" s="9">
-        <v>72132</v>
+        <v>66108</v>
       </c>
       <c r="K165" s="9">
-        <v>66108</v>
+        <v>60834</v>
       </c>
       <c r="L165" s="9">
-        <v>60834</v>
+        <v>25922</v>
       </c>
       <c r="M165" s="9">
-        <v>25922</v>
+        <v>7783</v>
       </c>
       <c r="N165" s="9">
-        <v>7783</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50202</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>31375</v>
+        <v>43678</v>
       </c>
       <c r="F166" s="11">
-        <v>43678</v>
+        <v>33850</v>
       </c>
       <c r="G166" s="11">
-        <v>33850</v>
+        <v>52118</v>
       </c>
       <c r="H166" s="11">
-        <v>52118</v>
+        <v>42984</v>
       </c>
       <c r="I166" s="11">
-        <v>42984</v>
+        <v>126198</v>
       </c>
       <c r="J166" s="11">
-        <v>126198</v>
+        <v>82923</v>
       </c>
       <c r="K166" s="11">
-        <v>82923</v>
+        <v>91368</v>
       </c>
       <c r="L166" s="11">
-        <v>91368</v>
+        <v>-85827</v>
       </c>
       <c r="M166" s="11">
-        <v>-85827</v>
+        <v>331809</v>
       </c>
       <c r="N166" s="11">
-        <v>331809</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136588</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>132981</v>
+        <v>499310</v>
       </c>
       <c r="F167" s="9">
-        <v>499310</v>
+        <v>172156</v>
       </c>
       <c r="G167" s="9">
-        <v>172156</v>
+        <v>195968</v>
       </c>
       <c r="H167" s="9">
-        <v>195968</v>
+        <v>184062</v>
       </c>
       <c r="I167" s="9">
-        <v>184062</v>
+        <v>188100</v>
       </c>
       <c r="J167" s="9">
-        <v>188100</v>
+        <v>240592</v>
       </c>
       <c r="K167" s="9">
-        <v>240592</v>
+        <v>120449</v>
       </c>
       <c r="L167" s="9">
-        <v>120449</v>
+        <v>184264</v>
       </c>
       <c r="M167" s="9">
-        <v>184264</v>
+        <v>197632</v>
       </c>
       <c r="N167" s="9">
-        <v>197632</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185734</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>62025</v>
+        <v>113211</v>
       </c>
       <c r="F168" s="11">
-        <v>113211</v>
+        <v>87560</v>
       </c>
       <c r="G168" s="11">
-        <v>87560</v>
+        <v>79471</v>
       </c>
       <c r="H168" s="11">
-        <v>79471</v>
+        <v>-151327</v>
       </c>
       <c r="I168" s="11">
-        <v>-151327</v>
+        <v>433312</v>
       </c>
       <c r="J168" s="11">
-        <v>433312</v>
+        <v>145930</v>
       </c>
       <c r="K168" s="11">
-        <v>145930</v>
+        <v>137093</v>
       </c>
       <c r="L168" s="11">
-        <v>137093</v>
+        <v>107025</v>
       </c>
       <c r="M168" s="11">
-        <v>107025</v>
+        <v>327335</v>
       </c>
       <c r="N168" s="11">
-        <v>327335</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>234132</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>60</v>
       </c>
@@ -5797,81 +5797,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>160570</v>
+        <v>256702</v>
       </c>
       <c r="F170" s="11">
-        <v>256702</v>
+        <v>167157</v>
       </c>
       <c r="G170" s="11">
-        <v>167157</v>
+        <v>6764</v>
       </c>
       <c r="H170" s="11">
-        <v>6764</v>
+        <v>439615</v>
       </c>
       <c r="I170" s="11">
-        <v>439615</v>
+        <v>274302</v>
       </c>
       <c r="J170" s="11">
-        <v>274302</v>
+        <v>205165</v>
       </c>
       <c r="K170" s="11">
-        <v>205165</v>
+        <v>416826</v>
       </c>
       <c r="L170" s="11">
-        <v>416826</v>
+        <v>198480</v>
       </c>
       <c r="M170" s="11">
-        <v>198480</v>
+        <v>142615</v>
       </c>
       <c r="N170" s="11">
-        <v>142615</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>314029</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15">
-        <v>391870</v>
+        <v>975814</v>
       </c>
       <c r="F171" s="15">
-        <v>975814</v>
+        <v>480967</v>
       </c>
       <c r="G171" s="15">
-        <v>480967</v>
+        <v>416633</v>
       </c>
       <c r="H171" s="15">
-        <v>416633</v>
+        <v>546652</v>
       </c>
       <c r="I171" s="15">
-        <v>546652</v>
+        <v>1101918</v>
       </c>
       <c r="J171" s="15">
-        <v>1101918</v>
+        <v>741541</v>
       </c>
       <c r="K171" s="15">
-        <v>741541</v>
+        <v>825747</v>
       </c>
       <c r="L171" s="15">
-        <v>825747</v>
+        <v>434908</v>
       </c>
       <c r="M171" s="15">
-        <v>434908</v>
+        <v>1010023</v>
       </c>
       <c r="N171" s="15">
-        <v>1010023</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>923250</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5886,7 +5886,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5901,7 +5901,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5916,7 +5916,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>62</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5948,7 +5948,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>63</v>
       </c>
@@ -5967,7 +5967,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>65</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>66</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>67</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>69</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>70</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>72</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>74</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>76</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>77</v>
       </c>
@@ -6093,7 +6093,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>78</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>79</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>80</v>
       </c>
